--- a/legacy.2022/everythingSearch/validate_everythingSearch_filters.xlsx
+++ b/legacy.2022/everythingSearch/validate_everythingSearch_filters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26818"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0df6217d7d5cd40e/Documents/2021/dotfiles_git/everythingSearch/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\data\2023\dotfiles.2023\legacy.2022\everythingSearch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="82" documentId="8_{AE26C333-E2D8-4AE0-B918-D0C4BA047AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74E134A3-8384-4D1D-B6A5-0613D569C87E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C526C7FF-5431-479F-BE66-E5ACED2C9930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4980" yWindow="0" windowWidth="27525" windowHeight="15210" activeTab="1" xr2:uid="{744372F9-5416-4010-8437-9D332832DB06}"/>
+    <workbookView xWindow="2445" yWindow="3315" windowWidth="33645" windowHeight="17595" xr2:uid="{744372F9-5416-4010-8437-9D332832DB06}"/>
   </bookViews>
   <sheets>
     <sheet name="PQ Validation" sheetId="3" r:id="rId1"/>
@@ -35,6 +35,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -1220,9 +1221,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1394,9 +1394,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1434,7 +1434,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1540,7 +1540,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1682,7 +1682,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1692,7 +1692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2C5D469-6E18-48E8-ABB2-EEBB3CD43D64}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1773,7 +1773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F41105A8-7A49-4D3E-8772-708B49AB92DF}">
   <dimension ref="A1:AA124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A81" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
@@ -1821,60 +1821,60 @@
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
         <v>309</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="5">
-        <v>0</v>
-      </c>
-      <c r="F2" s="5">
-        <v>0</v>
-      </c>
-      <c r="G2" s="5">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="5">
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
         <v>118</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0</v>
-      </c>
-      <c r="F3" s="5">
-        <v>0</v>
-      </c>
-      <c r="G3" s="5">
-        <v>0</v>
-      </c>
-      <c r="H3" s="5">
-        <v>0</v>
-      </c>
-      <c r="I3" s="5">
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
         <v>0</v>
       </c>
       <c r="M3" t="str" cm="1">
@@ -1896,31 +1896,31 @@
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-      <c r="G4" s="5">
-        <v>0</v>
-      </c>
-      <c r="H4" s="5">
-        <v>0</v>
-      </c>
-      <c r="I4" s="5">
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
         <v>0</v>
       </c>
       <c r="M4" t="str">
@@ -1940,31 +1940,31 @@
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>327</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>325</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>326</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="5">
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="4">
         <v>1</v>
       </c>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0</v>
-      </c>
-      <c r="H5" s="5">
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
         <v>1</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <v>0</v>
       </c>
       <c r="M5" t="str">
@@ -1984,31 +1984,31 @@
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>222</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>220</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>221</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0</v>
-      </c>
-      <c r="H6" s="5">
-        <v>0</v>
-      </c>
-      <c r="I6" s="5">
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
         <v>0</v>
       </c>
       <c r="M6" t="str">
@@ -2028,31 +2028,31 @@
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>261</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>259</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>260</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="5">
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="4">
         <v>1</v>
       </c>
-      <c r="F7" s="5">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0</v>
-      </c>
-      <c r="H7" s="5">
-        <v>0</v>
-      </c>
-      <c r="I7" s="5">
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
         <v>0</v>
       </c>
       <c r="M7" t="str">
@@ -2072,31 +2072,31 @@
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>133</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>131</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>132</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0</v>
-      </c>
-      <c r="G8" s="5">
-        <v>0</v>
-      </c>
-      <c r="H8" s="5">
-        <v>0</v>
-      </c>
-      <c r="I8" s="5">
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
         <v>0</v>
       </c>
       <c r="M8" t="str">
@@ -2116,31 +2116,31 @@
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>84</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0</v>
-      </c>
-      <c r="F9" s="5">
-        <v>0</v>
-      </c>
-      <c r="G9" s="5">
-        <v>0</v>
-      </c>
-      <c r="H9" s="5">
-        <v>0</v>
-      </c>
-      <c r="I9" s="5">
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
         <v>0</v>
       </c>
       <c r="M9" t="str">
@@ -2160,31 +2160,31 @@
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>142</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>140</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>141</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0</v>
-      </c>
-      <c r="F10" s="5">
-        <v>0</v>
-      </c>
-      <c r="G10" s="5">
-        <v>0</v>
-      </c>
-      <c r="H10" s="5">
-        <v>0</v>
-      </c>
-      <c r="I10" s="5">
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
         <v>0</v>
       </c>
       <c r="M10" t="str">
@@ -2204,31 +2204,31 @@
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
         <v>152</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>153</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="5">
-        <v>0</v>
-      </c>
-      <c r="F11" s="5">
-        <v>0</v>
-      </c>
-      <c r="G11" s="5">
-        <v>0</v>
-      </c>
-      <c r="H11" s="5">
-        <v>0</v>
-      </c>
-      <c r="I11" s="5">
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
         <v>0</v>
       </c>
       <c r="M11" t="str">
@@ -2248,31 +2248,31 @@
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>86</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="5">
-        <v>0</v>
-      </c>
-      <c r="F12" s="5">
-        <v>0</v>
-      </c>
-      <c r="G12" s="5">
-        <v>0</v>
-      </c>
-      <c r="H12" s="5">
-        <v>0</v>
-      </c>
-      <c r="I12" s="5">
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
         <v>0</v>
       </c>
       <c r="M12" t="str">
@@ -2292,31 +2292,31 @@
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>96</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>95</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="5">
-        <v>0</v>
-      </c>
-      <c r="F13" s="5">
-        <v>0</v>
-      </c>
-      <c r="G13" s="5">
-        <v>0</v>
-      </c>
-      <c r="H13" s="5">
-        <v>0</v>
-      </c>
-      <c r="I13" s="5">
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
         <v>0</v>
       </c>
       <c r="M13" t="str">
@@ -2336,31 +2336,31 @@
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>336</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>334</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>335</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="5">
-        <v>0</v>
-      </c>
-      <c r="F14" s="5">
-        <v>0</v>
-      </c>
-      <c r="G14" s="5">
-        <v>0</v>
-      </c>
-      <c r="H14" s="5">
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
         <v>1</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="4">
         <v>0</v>
       </c>
       <c r="M14" t="str">
@@ -2380,31 +2380,31 @@
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>195</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>193</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>194</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="5">
-        <v>0</v>
-      </c>
-      <c r="F15" s="5">
-        <v>0</v>
-      </c>
-      <c r="G15" s="5">
-        <v>0</v>
-      </c>
-      <c r="H15" s="5">
-        <v>0</v>
-      </c>
-      <c r="I15" s="5">
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
         <v>0</v>
       </c>
       <c r="M15" t="str">
@@ -2424,31 +2424,31 @@
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>240</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>238</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>239</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="5">
-        <v>0</v>
-      </c>
-      <c r="F16" s="5">
-        <v>0</v>
-      </c>
-      <c r="G16" s="5">
-        <v>0</v>
-      </c>
-      <c r="H16" s="5">
-        <v>0</v>
-      </c>
-      <c r="I16" s="5">
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
         <v>0</v>
       </c>
       <c r="M16" t="str">
@@ -2468,31 +2468,31 @@
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>75</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>215</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>216</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="5">
-        <v>0</v>
-      </c>
-      <c r="F17" s="5">
-        <v>0</v>
-      </c>
-      <c r="G17" s="5">
-        <v>0</v>
-      </c>
-      <c r="H17" s="5">
-        <v>0</v>
-      </c>
-      <c r="I17" s="5">
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
         <v>0</v>
       </c>
       <c r="M17" t="str">
@@ -2512,31 +2512,31 @@
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>214</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>212</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>213</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="5">
-        <v>0</v>
-      </c>
-      <c r="F18" s="5">
-        <v>0</v>
-      </c>
-      <c r="G18" s="5">
-        <v>0</v>
-      </c>
-      <c r="H18" s="5">
-        <v>0</v>
-      </c>
-      <c r="I18" s="5">
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
         <v>0</v>
       </c>
       <c r="M18" t="str">
@@ -2556,31 +2556,31 @@
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>161</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>159</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>160</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="5">
-        <v>0</v>
-      </c>
-      <c r="F19" s="5">
-        <v>0</v>
-      </c>
-      <c r="G19" s="5">
-        <v>0</v>
-      </c>
-      <c r="H19" s="5">
-        <v>0</v>
-      </c>
-      <c r="I19" s="5">
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
         <v>0</v>
       </c>
       <c r="M19" t="str">
@@ -2600,31 +2600,31 @@
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>345</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>343</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>344</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="5">
-        <v>0</v>
-      </c>
-      <c r="F20" s="5">
-        <v>0</v>
-      </c>
-      <c r="G20" s="5">
-        <v>0</v>
-      </c>
-      <c r="H20" s="5">
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0</v>
+      </c>
+      <c r="H20" s="4">
         <v>1</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="4">
         <v>0</v>
       </c>
       <c r="M20" t="str">
@@ -2644,31 +2644,31 @@
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>246</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>244</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>245</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="5">
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="4">
         <v>1</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="4">
         <v>1</v>
       </c>
-      <c r="G21" s="5">
-        <v>0</v>
-      </c>
-      <c r="H21" s="5">
-        <v>0</v>
-      </c>
-      <c r="I21" s="5">
+      <c r="G21" s="4">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
         <v>0</v>
       </c>
       <c r="M21" t="str">
@@ -2688,31 +2688,31 @@
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="1" t="s">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="5">
-        <v>0</v>
-      </c>
-      <c r="F22" s="5">
-        <v>0</v>
-      </c>
-      <c r="G22" s="5">
-        <v>0</v>
-      </c>
-      <c r="H22" s="5">
-        <v>0</v>
-      </c>
-      <c r="I22" s="5">
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0</v>
+      </c>
+      <c r="I22" s="4">
         <v>0</v>
       </c>
       <c r="M22" t="str">
@@ -2732,31 +2732,31 @@
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="1" t="s">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
         <v>210</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
         <v>211</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="5">
-        <v>0</v>
-      </c>
-      <c r="F23" s="5">
-        <v>0</v>
-      </c>
-      <c r="G23" s="5">
-        <v>0</v>
-      </c>
-      <c r="H23" s="5">
-        <v>0</v>
-      </c>
-      <c r="I23" s="5">
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0</v>
+      </c>
+      <c r="I23" s="4">
         <v>0</v>
       </c>
       <c r="M23" t="str">
@@ -2776,31 +2776,31 @@
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>189</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>187</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" t="s">
         <v>188</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="5">
-        <v>0</v>
-      </c>
-      <c r="F24" s="5">
-        <v>0</v>
-      </c>
-      <c r="G24" s="5">
-        <v>0</v>
-      </c>
-      <c r="H24" s="5">
-        <v>0</v>
-      </c>
-      <c r="I24" s="5">
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0</v>
+      </c>
+      <c r="I24" s="4">
         <v>0</v>
       </c>
       <c r="M24" t="str">
@@ -2820,31 +2820,31 @@
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>333</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>331</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" t="s">
         <v>332</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="5">
-        <v>0</v>
-      </c>
-      <c r="F25" s="5">
-        <v>0</v>
-      </c>
-      <c r="G25" s="5">
-        <v>0</v>
-      </c>
-      <c r="H25" s="5">
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0</v>
+      </c>
+      <c r="H25" s="4">
         <v>1</v>
       </c>
-      <c r="I25" s="5">
+      <c r="I25" s="4">
         <v>0</v>
       </c>
       <c r="M25" t="str">
@@ -2864,31 +2864,31 @@
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="5">
-        <v>0</v>
-      </c>
-      <c r="F26" s="5">
-        <v>0</v>
-      </c>
-      <c r="G26" s="5">
-        <v>0</v>
-      </c>
-      <c r="H26" s="5">
-        <v>0</v>
-      </c>
-      <c r="I26" s="5">
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0</v>
+      </c>
+      <c r="H26" s="4">
+        <v>0</v>
+      </c>
+      <c r="I26" s="4">
         <v>0</v>
       </c>
       <c r="M26" t="str">
@@ -2908,31 +2908,31 @@
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>249</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>247</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" t="s">
         <v>248</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="5">
-        <v>0</v>
-      </c>
-      <c r="F27" s="5">
-        <v>0</v>
-      </c>
-      <c r="G27" s="5">
-        <v>0</v>
-      </c>
-      <c r="H27" s="5">
-        <v>0</v>
-      </c>
-      <c r="I27" s="5">
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0</v>
+      </c>
+      <c r="G27" s="4">
+        <v>0</v>
+      </c>
+      <c r="H27" s="4">
+        <v>0</v>
+      </c>
+      <c r="I27" s="4">
         <v>0</v>
       </c>
       <c r="M27" t="str">
@@ -2952,31 +2952,31 @@
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>255</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>253</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" t="s">
         <v>254</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="5">
-        <v>0</v>
-      </c>
-      <c r="F28" s="5">
-        <v>0</v>
-      </c>
-      <c r="G28" s="5">
-        <v>0</v>
-      </c>
-      <c r="H28" s="5">
-        <v>0</v>
-      </c>
-      <c r="I28" s="5">
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0</v>
+      </c>
+      <c r="H28" s="4">
+        <v>0</v>
+      </c>
+      <c r="I28" s="4">
         <v>0</v>
       </c>
       <c r="M28" t="str">
@@ -2996,31 +2996,31 @@
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
         <v>198</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
         <v>196</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" t="s">
         <v>197</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="5">
-        <v>0</v>
-      </c>
-      <c r="F29" s="5">
-        <v>0</v>
-      </c>
-      <c r="G29" s="5">
-        <v>0</v>
-      </c>
-      <c r="H29" s="5">
-        <v>0</v>
-      </c>
-      <c r="I29" s="5">
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0</v>
+      </c>
+      <c r="G29" s="4">
+        <v>0</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0</v>
+      </c>
+      <c r="I29" s="4">
         <v>0</v>
       </c>
       <c r="M29" t="str">
@@ -3040,31 +3040,31 @@
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="A30" t="s">
         <v>330</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" t="s">
         <v>328</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" t="s">
         <v>329</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="5">
-        <v>0</v>
-      </c>
-      <c r="F30" s="5">
-        <v>0</v>
-      </c>
-      <c r="G30" s="5">
-        <v>0</v>
-      </c>
-      <c r="H30" s="5">
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="4">
+        <v>0</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0</v>
+      </c>
+      <c r="G30" s="4">
+        <v>0</v>
+      </c>
+      <c r="H30" s="4">
         <v>1</v>
       </c>
-      <c r="I30" s="5">
+      <c r="I30" s="4">
         <v>0</v>
       </c>
       <c r="M30" t="str">
@@ -3084,31 +3084,31 @@
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="A31" t="s">
         <v>308</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="s">
         <v>306</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" t="s">
         <v>307</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" s="5">
-        <v>0</v>
-      </c>
-      <c r="F31" s="5">
-        <v>0</v>
-      </c>
-      <c r="G31" s="5">
-        <v>0</v>
-      </c>
-      <c r="H31" s="5">
-        <v>0</v>
-      </c>
-      <c r="I31" s="5">
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="4">
+        <v>0</v>
+      </c>
+      <c r="F31" s="4">
+        <v>0</v>
+      </c>
+      <c r="G31" s="4">
+        <v>0</v>
+      </c>
+      <c r="H31" s="4">
+        <v>0</v>
+      </c>
+      <c r="I31" s="4">
         <v>0</v>
       </c>
       <c r="M31" t="str">
@@ -3128,31 +3128,31 @@
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+      <c r="A32" t="s">
         <v>264</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" t="s">
         <v>262</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" t="s">
         <v>263</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" s="5">
-        <v>0</v>
-      </c>
-      <c r="F32" s="5">
-        <v>0</v>
-      </c>
-      <c r="G32" s="5">
-        <v>0</v>
-      </c>
-      <c r="H32" s="5">
-        <v>0</v>
-      </c>
-      <c r="I32" s="5">
+      <c r="D32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="4">
+        <v>0</v>
+      </c>
+      <c r="F32" s="4">
+        <v>0</v>
+      </c>
+      <c r="G32" s="4">
+        <v>0</v>
+      </c>
+      <c r="H32" s="4">
+        <v>0</v>
+      </c>
+      <c r="I32" s="4">
         <v>0</v>
       </c>
       <c r="M32" t="str">
@@ -3172,31 +3172,31 @@
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="A33" t="s">
         <v>318</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" t="s">
         <v>316</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" t="s">
         <v>317</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="5">
-        <v>0</v>
-      </c>
-      <c r="F33" s="5">
-        <v>0</v>
-      </c>
-      <c r="G33" s="5">
-        <v>0</v>
-      </c>
-      <c r="H33" s="5">
-        <v>0</v>
-      </c>
-      <c r="I33" s="5">
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0</v>
+      </c>
+      <c r="F33" s="4">
+        <v>0</v>
+      </c>
+      <c r="G33" s="4">
+        <v>0</v>
+      </c>
+      <c r="H33" s="4">
+        <v>0</v>
+      </c>
+      <c r="I33" s="4">
         <v>0</v>
       </c>
       <c r="M33" t="str">
@@ -3216,31 +3216,31 @@
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+      <c r="A34" t="s">
         <v>186</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" t="s">
         <v>184</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" t="s">
         <v>185</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34" s="5">
-        <v>0</v>
-      </c>
-      <c r="F34" s="5">
-        <v>0</v>
-      </c>
-      <c r="G34" s="5">
-        <v>0</v>
-      </c>
-      <c r="H34" s="5">
-        <v>0</v>
-      </c>
-      <c r="I34" s="5">
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0</v>
+      </c>
+      <c r="F34" s="4">
+        <v>0</v>
+      </c>
+      <c r="G34" s="4">
+        <v>0</v>
+      </c>
+      <c r="H34" s="4">
+        <v>0</v>
+      </c>
+      <c r="I34" s="4">
         <v>0</v>
       </c>
       <c r="M34" t="str">
@@ -3260,31 +3260,31 @@
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+      <c r="A35" t="s">
         <v>183</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" t="s">
         <v>181</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" t="s">
         <v>182</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" s="5">
-        <v>0</v>
-      </c>
-      <c r="F35" s="5">
-        <v>0</v>
-      </c>
-      <c r="G35" s="5">
-        <v>0</v>
-      </c>
-      <c r="H35" s="5">
-        <v>0</v>
-      </c>
-      <c r="I35" s="5">
+      <c r="D35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="4">
+        <v>0</v>
+      </c>
+      <c r="F35" s="4">
+        <v>0</v>
+      </c>
+      <c r="G35" s="4">
+        <v>0</v>
+      </c>
+      <c r="H35" s="4">
+        <v>0</v>
+      </c>
+      <c r="I35" s="4">
         <v>0</v>
       </c>
       <c r="M35" t="str">
@@ -3304,31 +3304,31 @@
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>164</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" t="s">
         <v>162</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" t="s">
         <v>163</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36" s="5">
-        <v>0</v>
-      </c>
-      <c r="F36" s="5">
-        <v>0</v>
-      </c>
-      <c r="G36" s="5">
-        <v>0</v>
-      </c>
-      <c r="H36" s="5">
-        <v>0</v>
-      </c>
-      <c r="I36" s="5">
+      <c r="D36" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="4">
+        <v>0</v>
+      </c>
+      <c r="F36" s="4">
+        <v>0</v>
+      </c>
+      <c r="G36" s="4">
+        <v>0</v>
+      </c>
+      <c r="H36" s="4">
+        <v>0</v>
+      </c>
+      <c r="I36" s="4">
         <v>0</v>
       </c>
       <c r="M36" t="str">
@@ -3348,31 +3348,31 @@
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+      <c r="A37" t="s">
         <v>93</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" t="s">
         <v>91</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" t="s">
         <v>92</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37" s="5">
-        <v>0</v>
-      </c>
-      <c r="F37" s="5">
-        <v>0</v>
-      </c>
-      <c r="G37" s="5">
-        <v>0</v>
-      </c>
-      <c r="H37" s="5">
-        <v>0</v>
-      </c>
-      <c r="I37" s="5">
+      <c r="D37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="4">
+        <v>0</v>
+      </c>
+      <c r="F37" s="4">
+        <v>0</v>
+      </c>
+      <c r="G37" s="4">
+        <v>0</v>
+      </c>
+      <c r="H37" s="4">
+        <v>0</v>
+      </c>
+      <c r="I37" s="4">
         <v>0</v>
       </c>
       <c r="M37" t="str">
@@ -3392,31 +3392,31 @@
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
+      <c r="A38" t="s">
         <v>96</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" t="s">
         <v>154</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" t="s">
         <v>155</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E38" s="5">
-        <v>0</v>
-      </c>
-      <c r="F38" s="5">
-        <v>0</v>
-      </c>
-      <c r="G38" s="5">
-        <v>0</v>
-      </c>
-      <c r="H38" s="5">
-        <v>0</v>
-      </c>
-      <c r="I38" s="5">
+      <c r="D38" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="4">
+        <v>0</v>
+      </c>
+      <c r="F38" s="4">
+        <v>0</v>
+      </c>
+      <c r="G38" s="4">
+        <v>0</v>
+      </c>
+      <c r="H38" s="4">
+        <v>0</v>
+      </c>
+      <c r="I38" s="4">
         <v>0</v>
       </c>
       <c r="M38" t="str">
@@ -3436,31 +3436,31 @@
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+      <c r="A39" t="s">
         <v>177</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" t="s">
         <v>175</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" t="s">
         <v>176</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39" s="5">
-        <v>0</v>
-      </c>
-      <c r="F39" s="5">
-        <v>0</v>
-      </c>
-      <c r="G39" s="5">
-        <v>0</v>
-      </c>
-      <c r="H39" s="5">
-        <v>0</v>
-      </c>
-      <c r="I39" s="5">
+      <c r="D39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="4">
+        <v>0</v>
+      </c>
+      <c r="F39" s="4">
+        <v>0</v>
+      </c>
+      <c r="G39" s="4">
+        <v>0</v>
+      </c>
+      <c r="H39" s="4">
+        <v>0</v>
+      </c>
+      <c r="I39" s="4">
         <v>0</v>
       </c>
       <c r="M39" t="str">
@@ -3480,31 +3480,31 @@
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+      <c r="A40" t="s">
         <v>204</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" t="s">
         <v>202</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" t="s">
         <v>203</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E40" s="5">
-        <v>0</v>
-      </c>
-      <c r="F40" s="5">
-        <v>0</v>
-      </c>
-      <c r="G40" s="5">
-        <v>0</v>
-      </c>
-      <c r="H40" s="5">
-        <v>0</v>
-      </c>
-      <c r="I40" s="5">
+      <c r="D40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="4">
+        <v>0</v>
+      </c>
+      <c r="F40" s="4">
+        <v>0</v>
+      </c>
+      <c r="G40" s="4">
+        <v>0</v>
+      </c>
+      <c r="H40" s="4">
+        <v>0</v>
+      </c>
+      <c r="I40" s="4">
         <v>0</v>
       </c>
       <c r="M40" t="str">
@@ -3524,31 +3524,31 @@
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+      <c r="A41" t="s">
         <v>321</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" t="s">
         <v>319</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" t="s">
         <v>320</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E41" s="5">
-        <v>0</v>
-      </c>
-      <c r="F41" s="5">
-        <v>0</v>
-      </c>
-      <c r="G41" s="5">
-        <v>0</v>
-      </c>
-      <c r="H41" s="5">
-        <v>0</v>
-      </c>
-      <c r="I41" s="5">
+      <c r="D41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="4">
+        <v>0</v>
+      </c>
+      <c r="F41" s="4">
+        <v>0</v>
+      </c>
+      <c r="G41" s="4">
+        <v>0</v>
+      </c>
+      <c r="H41" s="4">
+        <v>0</v>
+      </c>
+      <c r="I41" s="4">
         <v>0</v>
       </c>
       <c r="M41" t="str">
@@ -3568,31 +3568,31 @@
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
+      <c r="A42" t="s">
         <v>252</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" t="s">
         <v>250</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" t="s">
         <v>251</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E42" s="5">
-        <v>0</v>
-      </c>
-      <c r="F42" s="5">
-        <v>0</v>
-      </c>
-      <c r="G42" s="5">
-        <v>0</v>
-      </c>
-      <c r="H42" s="5">
-        <v>0</v>
-      </c>
-      <c r="I42" s="5">
+      <c r="D42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="4">
+        <v>0</v>
+      </c>
+      <c r="F42" s="4">
+        <v>0</v>
+      </c>
+      <c r="G42" s="4">
+        <v>0</v>
+      </c>
+      <c r="H42" s="4">
+        <v>0</v>
+      </c>
+      <c r="I42" s="4">
         <v>0</v>
       </c>
       <c r="M42" t="str">
@@ -3612,31 +3612,31 @@
       </c>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
+      <c r="A43" t="s">
         <v>219</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" t="s">
         <v>217</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" t="s">
         <v>218</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E43" s="5">
-        <v>0</v>
-      </c>
-      <c r="F43" s="5">
-        <v>0</v>
-      </c>
-      <c r="G43" s="5">
-        <v>0</v>
-      </c>
-      <c r="H43" s="5">
-        <v>0</v>
-      </c>
-      <c r="I43" s="5">
+      <c r="D43" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="4">
+        <v>0</v>
+      </c>
+      <c r="F43" s="4">
+        <v>0</v>
+      </c>
+      <c r="G43" s="4">
+        <v>0</v>
+      </c>
+      <c r="H43" s="4">
+        <v>0</v>
+      </c>
+      <c r="I43" s="4">
         <v>0</v>
       </c>
       <c r="M43" t="str">
@@ -3656,31 +3656,31 @@
       </c>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
+      <c r="A44" t="s">
         <v>180</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" t="s">
         <v>178</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" t="s">
         <v>179</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E44" s="5">
-        <v>0</v>
-      </c>
-      <c r="F44" s="5">
-        <v>0</v>
-      </c>
-      <c r="G44" s="5">
-        <v>0</v>
-      </c>
-      <c r="H44" s="5">
-        <v>0</v>
-      </c>
-      <c r="I44" s="5">
+      <c r="D44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="4">
+        <v>0</v>
+      </c>
+      <c r="F44" s="4">
+        <v>0</v>
+      </c>
+      <c r="G44" s="4">
+        <v>0</v>
+      </c>
+      <c r="H44" s="4">
+        <v>0</v>
+      </c>
+      <c r="I44" s="4">
         <v>0</v>
       </c>
       <c r="M44" t="str">
@@ -3700,31 +3700,31 @@
       </c>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
+      <c r="A45" t="s">
         <v>63</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" t="s">
         <v>61</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" t="s">
         <v>62</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E45" s="5">
-        <v>0</v>
-      </c>
-      <c r="F45" s="5">
-        <v>0</v>
-      </c>
-      <c r="G45" s="5">
-        <v>0</v>
-      </c>
-      <c r="H45" s="5">
-        <v>0</v>
-      </c>
-      <c r="I45" s="5">
+      <c r="D45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="4">
+        <v>0</v>
+      </c>
+      <c r="F45" s="4">
+        <v>0</v>
+      </c>
+      <c r="G45" s="4">
+        <v>0</v>
+      </c>
+      <c r="H45" s="4">
+        <v>0</v>
+      </c>
+      <c r="I45" s="4">
         <v>0</v>
       </c>
       <c r="M45" t="str">
@@ -3744,31 +3744,31 @@
       </c>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
+      <c r="A46" t="s">
         <v>225</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" t="s">
         <v>223</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" t="s">
         <v>224</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E46" s="5">
-        <v>0</v>
-      </c>
-      <c r="F46" s="5">
-        <v>0</v>
-      </c>
-      <c r="G46" s="5">
-        <v>0</v>
-      </c>
-      <c r="H46" s="5">
-        <v>0</v>
-      </c>
-      <c r="I46" s="5">
+      <c r="D46" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="4">
+        <v>0</v>
+      </c>
+      <c r="F46" s="4">
+        <v>0</v>
+      </c>
+      <c r="G46" s="4">
+        <v>0</v>
+      </c>
+      <c r="H46" s="4">
+        <v>0</v>
+      </c>
+      <c r="I46" s="4">
         <v>0</v>
       </c>
       <c r="M46" t="str">
@@ -3788,31 +3788,31 @@
       </c>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B47" s="1" t="s">
+      <c r="A47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" t="s">
         <v>208</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" t="s">
         <v>209</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E47" s="5">
-        <v>0</v>
-      </c>
-      <c r="F47" s="5">
-        <v>0</v>
-      </c>
-      <c r="G47" s="5">
-        <v>0</v>
-      </c>
-      <c r="H47" s="5">
-        <v>0</v>
-      </c>
-      <c r="I47" s="5">
+      <c r="D47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="4">
+        <v>0</v>
+      </c>
+      <c r="F47" s="4">
+        <v>0</v>
+      </c>
+      <c r="G47" s="4">
+        <v>0</v>
+      </c>
+      <c r="H47" s="4">
+        <v>0</v>
+      </c>
+      <c r="I47" s="4">
         <v>0</v>
       </c>
       <c r="M47" t="str">
@@ -3832,31 +3832,31 @@
       </c>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
+      <c r="A48" t="s">
         <v>38</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" t="s">
         <v>56</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" t="s">
         <v>57</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E48" s="5">
-        <v>0</v>
-      </c>
-      <c r="F48" s="5">
-        <v>0</v>
-      </c>
-      <c r="G48" s="5">
-        <v>0</v>
-      </c>
-      <c r="H48" s="5">
+      <c r="D48" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" s="4">
+        <v>0</v>
+      </c>
+      <c r="F48" s="4">
+        <v>0</v>
+      </c>
+      <c r="G48" s="4">
+        <v>0</v>
+      </c>
+      <c r="H48" s="4">
         <v>1</v>
       </c>
-      <c r="I48" s="5">
+      <c r="I48" s="4">
         <v>0</v>
       </c>
       <c r="M48" t="str">
@@ -3876,31 +3876,31 @@
       </c>
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
+      <c r="A49" t="s">
         <v>24</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" t="s">
         <v>46</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" t="s">
         <v>47</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E49" s="5">
-        <v>0</v>
-      </c>
-      <c r="F49" s="5">
-        <v>0</v>
-      </c>
-      <c r="G49" s="5">
-        <v>0</v>
-      </c>
-      <c r="H49" s="5">
+      <c r="D49" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="4">
+        <v>0</v>
+      </c>
+      <c r="F49" s="4">
+        <v>0</v>
+      </c>
+      <c r="G49" s="4">
+        <v>0</v>
+      </c>
+      <c r="H49" s="4">
         <v>1</v>
       </c>
-      <c r="I49" s="5">
+      <c r="I49" s="4">
         <v>0</v>
       </c>
       <c r="M49" t="str">
@@ -3920,31 +3920,31 @@
       </c>
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
+      <c r="A50" t="s">
         <v>21</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" t="s">
         <v>44</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" t="s">
         <v>45</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E50" s="5">
-        <v>0</v>
-      </c>
-      <c r="F50" s="5">
-        <v>0</v>
-      </c>
-      <c r="G50" s="5">
-        <v>0</v>
-      </c>
-      <c r="H50" s="5">
-        <v>0</v>
-      </c>
-      <c r="I50" s="5">
+      <c r="D50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="4">
+        <v>0</v>
+      </c>
+      <c r="F50" s="4">
+        <v>0</v>
+      </c>
+      <c r="G50" s="4">
+        <v>0</v>
+      </c>
+      <c r="H50" s="4">
+        <v>0</v>
+      </c>
+      <c r="I50" s="4">
         <v>0</v>
       </c>
       <c r="M50" t="str">
@@ -3964,31 +3964,31 @@
       </c>
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
+      <c r="A51" t="s">
         <v>53</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" t="s">
         <v>51</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" t="s">
         <v>52</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E51" s="5">
-        <v>0</v>
-      </c>
-      <c r="F51" s="5">
-        <v>0</v>
-      </c>
-      <c r="G51" s="5">
-        <v>0</v>
-      </c>
-      <c r="H51" s="5">
-        <v>0</v>
-      </c>
-      <c r="I51" s="5">
+      <c r="D51" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="4">
+        <v>0</v>
+      </c>
+      <c r="F51" s="4">
+        <v>0</v>
+      </c>
+      <c r="G51" s="4">
+        <v>0</v>
+      </c>
+      <c r="H51" s="4">
+        <v>0</v>
+      </c>
+      <c r="I51" s="4">
         <v>0</v>
       </c>
       <c r="M51" t="str">
@@ -4008,31 +4008,31 @@
       </c>
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
+      <c r="A52" t="s">
         <v>50</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" t="s">
         <v>48</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" t="s">
         <v>49</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E52" s="5">
-        <v>0</v>
-      </c>
-      <c r="F52" s="5">
-        <v>0</v>
-      </c>
-      <c r="G52" s="5">
-        <v>0</v>
-      </c>
-      <c r="H52" s="5">
-        <v>0</v>
-      </c>
-      <c r="I52" s="5">
+      <c r="D52" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" s="4">
+        <v>0</v>
+      </c>
+      <c r="F52" s="4">
+        <v>0</v>
+      </c>
+      <c r="G52" s="4">
+        <v>0</v>
+      </c>
+      <c r="H52" s="4">
+        <v>0</v>
+      </c>
+      <c r="I52" s="4">
         <v>0</v>
       </c>
       <c r="M52" t="str">
@@ -4052,31 +4052,31 @@
       </c>
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
+      <c r="A53" t="s">
         <v>78</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" t="s">
         <v>76</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" t="s">
         <v>77</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E53" s="5">
-        <v>0</v>
-      </c>
-      <c r="F53" s="5">
-        <v>0</v>
-      </c>
-      <c r="G53" s="5">
-        <v>0</v>
-      </c>
-      <c r="H53" s="5">
-        <v>0</v>
-      </c>
-      <c r="I53" s="5">
+      <c r="D53" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" s="4">
+        <v>0</v>
+      </c>
+      <c r="F53" s="4">
+        <v>0</v>
+      </c>
+      <c r="G53" s="4">
+        <v>0</v>
+      </c>
+      <c r="H53" s="4">
+        <v>0</v>
+      </c>
+      <c r="I53" s="4">
         <v>0</v>
       </c>
       <c r="M53" t="str">
@@ -4096,31 +4096,31 @@
       </c>
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B54" s="1" t="s">
+      <c r="A54" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" t="s">
         <v>39</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" t="s">
         <v>40</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E54" s="5">
-        <v>0</v>
-      </c>
-      <c r="F54" s="5">
-        <v>0</v>
-      </c>
-      <c r="G54" s="5">
-        <v>0</v>
-      </c>
-      <c r="H54" s="5">
-        <v>0</v>
-      </c>
-      <c r="I54" s="5">
+      <c r="D54" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" s="4">
+        <v>0</v>
+      </c>
+      <c r="F54" s="4">
+        <v>0</v>
+      </c>
+      <c r="G54" s="4">
+        <v>0</v>
+      </c>
+      <c r="H54" s="4">
+        <v>0</v>
+      </c>
+      <c r="I54" s="4">
         <v>0</v>
       </c>
       <c r="M54" t="str">
@@ -4140,31 +4140,31 @@
       </c>
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B55" s="1" t="s">
+      <c r="A55" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" t="s">
         <v>41</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" t="s">
         <v>42</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E55" s="5">
-        <v>0</v>
-      </c>
-      <c r="F55" s="5">
-        <v>0</v>
-      </c>
-      <c r="G55" s="5">
-        <v>0</v>
-      </c>
-      <c r="H55" s="5">
-        <v>0</v>
-      </c>
-      <c r="I55" s="5">
+      <c r="D55" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" s="4">
+        <v>0</v>
+      </c>
+      <c r="F55" s="4">
+        <v>0</v>
+      </c>
+      <c r="G55" s="4">
+        <v>0</v>
+      </c>
+      <c r="H55" s="4">
+        <v>0</v>
+      </c>
+      <c r="I55" s="4">
         <v>0</v>
       </c>
       <c r="M55" t="str">
@@ -4184,31 +4184,31 @@
       </c>
     </row>
     <row r="56" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
+      <c r="A56" t="s">
         <v>243</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" t="s">
         <v>241</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" t="s">
         <v>242</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E56" s="5">
-        <v>0</v>
-      </c>
-      <c r="F56" s="5">
+      <c r="D56" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" s="4">
+        <v>0</v>
+      </c>
+      <c r="F56" s="4">
         <v>1</v>
       </c>
-      <c r="G56" s="5">
-        <v>0</v>
-      </c>
-      <c r="H56" s="5">
-        <v>0</v>
-      </c>
-      <c r="I56" s="5">
+      <c r="G56" s="4">
+        <v>0</v>
+      </c>
+      <c r="H56" s="4">
+        <v>0</v>
+      </c>
+      <c r="I56" s="4">
         <v>0</v>
       </c>
       <c r="M56" t="str">
@@ -4228,31 +4228,31 @@
       </c>
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
+      <c r="A57" t="s">
         <v>174</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" t="s">
         <v>172</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" t="s">
         <v>173</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E57" s="5">
-        <v>0</v>
-      </c>
-      <c r="F57" s="5">
-        <v>0</v>
-      </c>
-      <c r="G57" s="5">
-        <v>0</v>
-      </c>
-      <c r="H57" s="5">
-        <v>0</v>
-      </c>
-      <c r="I57" s="5">
+      <c r="D57" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" s="4">
+        <v>0</v>
+      </c>
+      <c r="F57" s="4">
+        <v>0</v>
+      </c>
+      <c r="G57" s="4">
+        <v>0</v>
+      </c>
+      <c r="H57" s="4">
+        <v>0</v>
+      </c>
+      <c r="I57" s="4">
         <v>0</v>
       </c>
       <c r="M57" t="str">
@@ -4272,31 +4272,31 @@
       </c>
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
+      <c r="A58" t="s">
         <v>258</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" t="s">
         <v>256</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" t="s">
         <v>257</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E58" s="5">
-        <v>0</v>
-      </c>
-      <c r="F58" s="5">
-        <v>0</v>
-      </c>
-      <c r="G58" s="5">
-        <v>0</v>
-      </c>
-      <c r="H58" s="5">
-        <v>0</v>
-      </c>
-      <c r="I58" s="5">
+      <c r="D58" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" s="4">
+        <v>0</v>
+      </c>
+      <c r="F58" s="4">
+        <v>0</v>
+      </c>
+      <c r="G58" s="4">
+        <v>0</v>
+      </c>
+      <c r="H58" s="4">
+        <v>0</v>
+      </c>
+      <c r="I58" s="4">
         <v>0</v>
       </c>
       <c r="M58" t="str">
@@ -4316,31 +4316,31 @@
       </c>
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
+      <c r="A59" t="s">
         <v>312</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" t="s">
         <v>310</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" t="s">
         <v>311</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E59" s="5">
-        <v>0</v>
-      </c>
-      <c r="F59" s="5">
-        <v>0</v>
-      </c>
-      <c r="G59" s="5">
-        <v>0</v>
-      </c>
-      <c r="H59" s="5">
-        <v>0</v>
-      </c>
-      <c r="I59" s="5">
+      <c r="D59" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" s="4">
+        <v>0</v>
+      </c>
+      <c r="F59" s="4">
+        <v>0</v>
+      </c>
+      <c r="G59" s="4">
+        <v>0</v>
+      </c>
+      <c r="H59" s="4">
+        <v>0</v>
+      </c>
+      <c r="I59" s="4">
         <v>0</v>
       </c>
       <c r="M59" t="str">
@@ -4360,31 +4360,31 @@
       </c>
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
+      <c r="A60" t="s">
         <v>192</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" t="s">
         <v>190</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" t="s">
         <v>191</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E60" s="5">
-        <v>0</v>
-      </c>
-      <c r="F60" s="5">
-        <v>0</v>
-      </c>
-      <c r="G60" s="5">
-        <v>0</v>
-      </c>
-      <c r="H60" s="5">
-        <v>0</v>
-      </c>
-      <c r="I60" s="5">
+      <c r="D60" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" s="4">
+        <v>0</v>
+      </c>
+      <c r="F60" s="4">
+        <v>0</v>
+      </c>
+      <c r="G60" s="4">
+        <v>0</v>
+      </c>
+      <c r="H60" s="4">
+        <v>0</v>
+      </c>
+      <c r="I60" s="4">
         <v>0</v>
       </c>
       <c r="M60" t="str">
@@ -4404,31 +4404,31 @@
       </c>
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
+      <c r="A61" t="s">
         <v>117</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" t="s">
         <v>115</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" t="s">
         <v>116</v>
       </c>
-      <c r="D61" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E61" s="5">
-        <v>0</v>
-      </c>
-      <c r="F61" s="5">
-        <v>0</v>
-      </c>
-      <c r="G61" s="5">
-        <v>0</v>
-      </c>
-      <c r="H61" s="5">
-        <v>0</v>
-      </c>
-      <c r="I61" s="5">
+      <c r="D61" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" s="4">
+        <v>0</v>
+      </c>
+      <c r="F61" s="4">
+        <v>0</v>
+      </c>
+      <c r="G61" s="4">
+        <v>0</v>
+      </c>
+      <c r="H61" s="4">
+        <v>0</v>
+      </c>
+      <c r="I61" s="4">
         <v>0</v>
       </c>
       <c r="M61" t="str">
@@ -4448,31 +4448,31 @@
       </c>
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
+      <c r="A62" t="s">
         <v>315</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" t="s">
         <v>313</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" t="s">
         <v>314</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E62" s="5">
-        <v>0</v>
-      </c>
-      <c r="F62" s="5">
-        <v>0</v>
-      </c>
-      <c r="G62" s="5">
-        <v>0</v>
-      </c>
-      <c r="H62" s="5">
-        <v>0</v>
-      </c>
-      <c r="I62" s="5">
+      <c r="D62" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" s="4">
+        <v>0</v>
+      </c>
+      <c r="F62" s="4">
+        <v>0</v>
+      </c>
+      <c r="G62" s="4">
+        <v>0</v>
+      </c>
+      <c r="H62" s="4">
+        <v>0</v>
+      </c>
+      <c r="I62" s="4">
         <v>0</v>
       </c>
       <c r="M62" t="str">
@@ -4492,31 +4492,31 @@
       </c>
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
+      <c r="A63" t="s">
         <v>75</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" t="s">
         <v>73</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" t="s">
         <v>74</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E63" s="5">
-        <v>0</v>
-      </c>
-      <c r="F63" s="5">
-        <v>0</v>
-      </c>
-      <c r="G63" s="5">
-        <v>0</v>
-      </c>
-      <c r="H63" s="5">
-        <v>0</v>
-      </c>
-      <c r="I63" s="5">
+      <c r="D63" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" s="4">
+        <v>0</v>
+      </c>
+      <c r="F63" s="4">
+        <v>0</v>
+      </c>
+      <c r="G63" s="4">
+        <v>0</v>
+      </c>
+      <c r="H63" s="4">
+        <v>0</v>
+      </c>
+      <c r="I63" s="4">
         <v>0</v>
       </c>
       <c r="M63" t="str">
@@ -4536,31 +4536,31 @@
       </c>
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
+      <c r="A64" t="s">
         <v>296</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" t="s">
         <v>294</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" t="s">
         <v>295</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E64" s="5">
-        <v>0</v>
-      </c>
-      <c r="F64" s="5">
-        <v>0</v>
-      </c>
-      <c r="G64" s="5">
-        <v>0</v>
-      </c>
-      <c r="H64" s="5">
-        <v>0</v>
-      </c>
-      <c r="I64" s="5">
+      <c r="D64" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" s="4">
+        <v>0</v>
+      </c>
+      <c r="F64" s="4">
+        <v>0</v>
+      </c>
+      <c r="G64" s="4">
+        <v>0</v>
+      </c>
+      <c r="H64" s="4">
+        <v>0</v>
+      </c>
+      <c r="I64" s="4">
         <v>0</v>
       </c>
       <c r="M64" t="str">
@@ -4580,31 +4580,31 @@
       </c>
     </row>
     <row r="65" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
+      <c r="A65" t="s">
         <v>151</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" t="s">
         <v>149</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" t="s">
         <v>150</v>
       </c>
-      <c r="D65" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E65" s="5">
-        <v>0</v>
-      </c>
-      <c r="F65" s="5">
-        <v>0</v>
-      </c>
-      <c r="G65" s="5">
-        <v>0</v>
-      </c>
-      <c r="H65" s="5">
-        <v>0</v>
-      </c>
-      <c r="I65" s="5">
+      <c r="D65" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" s="4">
+        <v>0</v>
+      </c>
+      <c r="F65" s="4">
+        <v>0</v>
+      </c>
+      <c r="G65" s="4">
+        <v>0</v>
+      </c>
+      <c r="H65" s="4">
+        <v>0</v>
+      </c>
+      <c r="I65" s="4">
         <v>0</v>
       </c>
       <c r="M65" t="str">
@@ -4624,31 +4624,31 @@
       </c>
     </row>
     <row r="66" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
+      <c r="A66" t="s">
         <v>60</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" t="s">
         <v>58</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" t="s">
         <v>59</v>
       </c>
-      <c r="D66" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E66" s="5">
-        <v>0</v>
-      </c>
-      <c r="F66" s="5">
-        <v>0</v>
-      </c>
-      <c r="G66" s="5">
-        <v>0</v>
-      </c>
-      <c r="H66" s="5">
-        <v>0</v>
-      </c>
-      <c r="I66" s="5">
+      <c r="D66" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66" s="4">
+        <v>0</v>
+      </c>
+      <c r="F66" s="4">
+        <v>0</v>
+      </c>
+      <c r="G66" s="4">
+        <v>0</v>
+      </c>
+      <c r="H66" s="4">
+        <v>0</v>
+      </c>
+      <c r="I66" s="4">
         <v>0</v>
       </c>
       <c r="M66" t="str">
@@ -4668,31 +4668,31 @@
       </c>
     </row>
     <row r="67" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
+      <c r="A67" t="s">
         <v>269</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" t="s">
         <v>267</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" t="s">
         <v>268</v>
       </c>
-      <c r="D67" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E67" s="5">
-        <v>0</v>
-      </c>
-      <c r="F67" s="5">
-        <v>0</v>
-      </c>
-      <c r="G67" s="5">
-        <v>0</v>
-      </c>
-      <c r="H67" s="5">
-        <v>0</v>
-      </c>
-      <c r="I67" s="5">
+      <c r="D67" t="s">
+        <v>12</v>
+      </c>
+      <c r="E67" s="4">
+        <v>0</v>
+      </c>
+      <c r="F67" s="4">
+        <v>0</v>
+      </c>
+      <c r="G67" s="4">
+        <v>0</v>
+      </c>
+      <c r="H67" s="4">
+        <v>0</v>
+      </c>
+      <c r="I67" s="4">
         <v>0</v>
       </c>
       <c r="M67" t="str">
@@ -4712,31 +4712,31 @@
       </c>
     </row>
     <row r="68" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
+      <c r="A68" t="s">
         <v>228</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" t="s">
         <v>226</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" t="s">
         <v>227</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E68" s="5">
-        <v>0</v>
-      </c>
-      <c r="F68" s="5">
-        <v>0</v>
-      </c>
-      <c r="G68" s="5">
-        <v>0</v>
-      </c>
-      <c r="H68" s="5">
-        <v>0</v>
-      </c>
-      <c r="I68" s="5">
+      <c r="D68" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68" s="4">
+        <v>0</v>
+      </c>
+      <c r="F68" s="4">
+        <v>0</v>
+      </c>
+      <c r="G68" s="4">
+        <v>0</v>
+      </c>
+      <c r="H68" s="4">
+        <v>0</v>
+      </c>
+      <c r="I68" s="4">
         <v>0</v>
       </c>
       <c r="M68" t="str">
@@ -4756,31 +4756,31 @@
       </c>
     </row>
     <row r="69" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
+      <c r="A69" t="s">
         <v>299</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" t="s">
         <v>297</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" t="s">
         <v>298</v>
       </c>
-      <c r="D69" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E69" s="5">
-        <v>0</v>
-      </c>
-      <c r="F69" s="5">
-        <v>0</v>
-      </c>
-      <c r="G69" s="5">
-        <v>0</v>
-      </c>
-      <c r="H69" s="5">
-        <v>0</v>
-      </c>
-      <c r="I69" s="5">
+      <c r="D69" t="s">
+        <v>12</v>
+      </c>
+      <c r="E69" s="4">
+        <v>0</v>
+      </c>
+      <c r="F69" s="4">
+        <v>0</v>
+      </c>
+      <c r="G69" s="4">
+        <v>0</v>
+      </c>
+      <c r="H69" s="4">
+        <v>0</v>
+      </c>
+      <c r="I69" s="4">
         <v>0</v>
       </c>
       <c r="M69" t="str">
@@ -4800,31 +4800,31 @@
       </c>
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
+      <c r="A70" t="s">
         <v>324</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" t="s">
         <v>322</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" t="s">
         <v>323</v>
       </c>
-      <c r="D70" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E70" s="5">
-        <v>0</v>
-      </c>
-      <c r="F70" s="5">
-        <v>0</v>
-      </c>
-      <c r="G70" s="5">
-        <v>0</v>
-      </c>
-      <c r="H70" s="5">
-        <v>0</v>
-      </c>
-      <c r="I70" s="5">
+      <c r="D70" t="s">
+        <v>12</v>
+      </c>
+      <c r="E70" s="4">
+        <v>0</v>
+      </c>
+      <c r="F70" s="4">
+        <v>0</v>
+      </c>
+      <c r="G70" s="4">
+        <v>0</v>
+      </c>
+      <c r="H70" s="4">
+        <v>0</v>
+      </c>
+      <c r="I70" s="4">
         <v>0</v>
       </c>
       <c r="M70" t="str">
@@ -4844,31 +4844,31 @@
       </c>
     </row>
     <row r="71" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
+      <c r="A71" t="s">
         <v>15</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" t="s">
         <v>13</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" t="s">
         <v>14</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E71" s="5">
-        <v>0</v>
-      </c>
-      <c r="F71" s="5">
-        <v>0</v>
-      </c>
-      <c r="G71" s="5">
-        <v>0</v>
-      </c>
-      <c r="H71" s="5">
-        <v>0</v>
-      </c>
-      <c r="I71" s="5">
+      <c r="D71" t="s">
+        <v>12</v>
+      </c>
+      <c r="E71" s="4">
+        <v>0</v>
+      </c>
+      <c r="F71" s="4">
+        <v>0</v>
+      </c>
+      <c r="G71" s="4">
+        <v>0</v>
+      </c>
+      <c r="H71" s="4">
+        <v>0</v>
+      </c>
+      <c r="I71" s="4">
         <v>0</v>
       </c>
       <c r="M71" t="str">
@@ -4888,31 +4888,31 @@
       </c>
     </row>
     <row r="72" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
+      <c r="A72" t="s">
         <v>234</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" t="s">
         <v>232</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" t="s">
         <v>233</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E72" s="5">
-        <v>0</v>
-      </c>
-      <c r="F72" s="5">
-        <v>0</v>
-      </c>
-      <c r="G72" s="5">
-        <v>0</v>
-      </c>
-      <c r="H72" s="5">
-        <v>0</v>
-      </c>
-      <c r="I72" s="5">
+      <c r="D72" t="s">
+        <v>12</v>
+      </c>
+      <c r="E72" s="4">
+        <v>0</v>
+      </c>
+      <c r="F72" s="4">
+        <v>0</v>
+      </c>
+      <c r="G72" s="4">
+        <v>0</v>
+      </c>
+      <c r="H72" s="4">
+        <v>0</v>
+      </c>
+      <c r="I72" s="4">
         <v>0</v>
       </c>
       <c r="M72" t="str">
@@ -4932,31 +4932,31 @@
       </c>
     </row>
     <row r="73" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
+      <c r="A73" t="s">
         <v>66</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" t="s">
         <v>64</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" t="s">
         <v>65</v>
       </c>
-      <c r="D73" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E73" s="5">
-        <v>0</v>
-      </c>
-      <c r="F73" s="5">
-        <v>0</v>
-      </c>
-      <c r="G73" s="5">
-        <v>0</v>
-      </c>
-      <c r="H73" s="5">
-        <v>0</v>
-      </c>
-      <c r="I73" s="5">
+      <c r="D73" t="s">
+        <v>12</v>
+      </c>
+      <c r="E73" s="4">
+        <v>0</v>
+      </c>
+      <c r="F73" s="4">
+        <v>0</v>
+      </c>
+      <c r="G73" s="4">
+        <v>0</v>
+      </c>
+      <c r="H73" s="4">
+        <v>0</v>
+      </c>
+      <c r="I73" s="4">
         <v>0</v>
       </c>
       <c r="M73" t="str">
@@ -4976,31 +4976,31 @@
       </c>
     </row>
     <row r="74" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
+      <c r="A74" t="s">
         <v>339</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" t="s">
         <v>337</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" t="s">
         <v>338</v>
       </c>
-      <c r="D74" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E74" s="5">
-        <v>0</v>
-      </c>
-      <c r="F74" s="5">
-        <v>0</v>
-      </c>
-      <c r="G74" s="5">
-        <v>0</v>
-      </c>
-      <c r="H74" s="5">
+      <c r="D74" t="s">
+        <v>12</v>
+      </c>
+      <c r="E74" s="4">
+        <v>0</v>
+      </c>
+      <c r="F74" s="4">
+        <v>0</v>
+      </c>
+      <c r="G74" s="4">
+        <v>0</v>
+      </c>
+      <c r="H74" s="4">
         <v>1</v>
       </c>
-      <c r="I74" s="5">
+      <c r="I74" s="4">
         <v>0</v>
       </c>
       <c r="M74" t="str">
@@ -5020,31 +5020,31 @@
       </c>
     </row>
     <row r="75" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
+      <c r="A75" t="s">
         <v>158</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" t="s">
         <v>156</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" t="s">
         <v>157</v>
       </c>
-      <c r="D75" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E75" s="5">
-        <v>0</v>
-      </c>
-      <c r="F75" s="5">
-        <v>0</v>
-      </c>
-      <c r="G75" s="5">
-        <v>0</v>
-      </c>
-      <c r="H75" s="5">
-        <v>0</v>
-      </c>
-      <c r="I75" s="5">
+      <c r="D75" t="s">
+        <v>12</v>
+      </c>
+      <c r="E75" s="4">
+        <v>0</v>
+      </c>
+      <c r="F75" s="4">
+        <v>0</v>
+      </c>
+      <c r="G75" s="4">
+        <v>0</v>
+      </c>
+      <c r="H75" s="4">
+        <v>0</v>
+      </c>
+      <c r="I75" s="4">
         <v>0</v>
       </c>
       <c r="M75" t="str">
@@ -5064,31 +5064,31 @@
       </c>
     </row>
     <row r="76" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
+      <c r="A76" t="s">
         <v>237</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" t="s">
         <v>235</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" t="s">
         <v>236</v>
       </c>
-      <c r="D76" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E76" s="5">
-        <v>0</v>
-      </c>
-      <c r="F76" s="5">
-        <v>0</v>
-      </c>
-      <c r="G76" s="5">
-        <v>0</v>
-      </c>
-      <c r="H76" s="5">
-        <v>0</v>
-      </c>
-      <c r="I76" s="5">
+      <c r="D76" t="s">
+        <v>12</v>
+      </c>
+      <c r="E76" s="4">
+        <v>0</v>
+      </c>
+      <c r="F76" s="4">
+        <v>0</v>
+      </c>
+      <c r="G76" s="4">
+        <v>0</v>
+      </c>
+      <c r="H76" s="4">
+        <v>0</v>
+      </c>
+      <c r="I76" s="4">
         <v>0</v>
       </c>
       <c r="M76" t="str">
@@ -5108,31 +5108,31 @@
       </c>
     </row>
     <row r="77" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
+      <c r="A77" t="s">
         <v>302</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" t="s">
         <v>300</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" t="s">
         <v>301</v>
       </c>
-      <c r="D77" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E77" s="5">
-        <v>0</v>
-      </c>
-      <c r="F77" s="5">
-        <v>0</v>
-      </c>
-      <c r="G77" s="5">
-        <v>0</v>
-      </c>
-      <c r="H77" s="5">
-        <v>0</v>
-      </c>
-      <c r="I77" s="5">
+      <c r="D77" t="s">
+        <v>12</v>
+      </c>
+      <c r="E77" s="4">
+        <v>0</v>
+      </c>
+      <c r="F77" s="4">
+        <v>0</v>
+      </c>
+      <c r="G77" s="4">
+        <v>0</v>
+      </c>
+      <c r="H77" s="4">
+        <v>0</v>
+      </c>
+      <c r="I77" s="4">
         <v>0</v>
       </c>
       <c r="M77" t="str">
@@ -5152,31 +5152,31 @@
       </c>
     </row>
     <row r="78" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
+      <c r="A78" t="s">
         <v>293</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" t="s">
         <v>291</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" t="s">
         <v>292</v>
       </c>
-      <c r="D78" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E78" s="5">
-        <v>0</v>
-      </c>
-      <c r="F78" s="5">
-        <v>0</v>
-      </c>
-      <c r="G78" s="5">
-        <v>0</v>
-      </c>
-      <c r="H78" s="5">
-        <v>0</v>
-      </c>
-      <c r="I78" s="5">
+      <c r="D78" t="s">
+        <v>12</v>
+      </c>
+      <c r="E78" s="4">
+        <v>0</v>
+      </c>
+      <c r="F78" s="4">
+        <v>0</v>
+      </c>
+      <c r="G78" s="4">
+        <v>0</v>
+      </c>
+      <c r="H78" s="4">
+        <v>0</v>
+      </c>
+      <c r="I78" s="4">
         <v>0</v>
       </c>
       <c r="M78" t="str">
@@ -5196,31 +5196,31 @@
       </c>
     </row>
     <row r="79" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
+      <c r="A79" t="s">
         <v>231</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" t="s">
         <v>229</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" t="s">
         <v>230</v>
       </c>
-      <c r="D79" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E79" s="5">
-        <v>0</v>
-      </c>
-      <c r="F79" s="5">
-        <v>0</v>
-      </c>
-      <c r="G79" s="5">
-        <v>0</v>
-      </c>
-      <c r="H79" s="5">
-        <v>0</v>
-      </c>
-      <c r="I79" s="5">
+      <c r="D79" t="s">
+        <v>12</v>
+      </c>
+      <c r="E79" s="4">
+        <v>0</v>
+      </c>
+      <c r="F79" s="4">
+        <v>0</v>
+      </c>
+      <c r="G79" s="4">
+        <v>0</v>
+      </c>
+      <c r="H79" s="4">
+        <v>0</v>
+      </c>
+      <c r="I79" s="4">
         <v>0</v>
       </c>
       <c r="M79" t="str">
@@ -5240,31 +5240,31 @@
       </c>
     </row>
     <row r="80" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
+      <c r="A80" t="s">
         <v>305</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" t="s">
         <v>303</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" t="s">
         <v>304</v>
       </c>
-      <c r="D80" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E80" s="5">
-        <v>0</v>
-      </c>
-      <c r="F80" s="5">
-        <v>0</v>
-      </c>
-      <c r="G80" s="5">
-        <v>0</v>
-      </c>
-      <c r="H80" s="5">
-        <v>0</v>
-      </c>
-      <c r="I80" s="5">
+      <c r="D80" t="s">
+        <v>12</v>
+      </c>
+      <c r="E80" s="4">
+        <v>0</v>
+      </c>
+      <c r="F80" s="4">
+        <v>0</v>
+      </c>
+      <c r="G80" s="4">
+        <v>0</v>
+      </c>
+      <c r="H80" s="4">
+        <v>0</v>
+      </c>
+      <c r="I80" s="4">
         <v>0</v>
       </c>
       <c r="M80" t="str">
@@ -5284,31 +5284,31 @@
       </c>
     </row>
     <row r="81" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
+      <c r="A81" t="s">
         <v>165</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" t="s">
         <v>165</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" t="s">
         <v>166</v>
       </c>
-      <c r="D81" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E81" s="5">
-        <v>0</v>
-      </c>
-      <c r="F81" s="5">
-        <v>0</v>
-      </c>
-      <c r="G81" s="5">
-        <v>0</v>
-      </c>
-      <c r="H81" s="5">
-        <v>0</v>
-      </c>
-      <c r="I81" s="5">
+      <c r="D81" t="s">
+        <v>12</v>
+      </c>
+      <c r="E81" s="4">
+        <v>0</v>
+      </c>
+      <c r="F81" s="4">
+        <v>0</v>
+      </c>
+      <c r="G81" s="4">
+        <v>0</v>
+      </c>
+      <c r="H81" s="4">
+        <v>0</v>
+      </c>
+      <c r="I81" s="4">
         <v>0</v>
       </c>
       <c r="M81" t="str">
@@ -5328,31 +5328,31 @@
       </c>
     </row>
     <row r="82" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A82" s="1" t="s">
+      <c r="A82" t="s">
         <v>287</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" t="s">
         <v>285</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" t="s">
         <v>286</v>
       </c>
-      <c r="D82" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E82" s="5">
-        <v>0</v>
-      </c>
-      <c r="F82" s="5">
-        <v>0</v>
-      </c>
-      <c r="G82" s="5">
-        <v>0</v>
-      </c>
-      <c r="H82" s="5">
-        <v>0</v>
-      </c>
-      <c r="I82" s="5">
+      <c r="D82" t="s">
+        <v>12</v>
+      </c>
+      <c r="E82" s="4">
+        <v>0</v>
+      </c>
+      <c r="F82" s="4">
+        <v>0</v>
+      </c>
+      <c r="G82" s="4">
+        <v>0</v>
+      </c>
+      <c r="H82" s="4">
+        <v>0</v>
+      </c>
+      <c r="I82" s="4">
         <v>0</v>
       </c>
       <c r="M82" t="str">
@@ -5372,31 +5372,31 @@
       </c>
     </row>
     <row r="83" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
+      <c r="A83" t="s">
         <v>207</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" t="s">
         <v>205</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" t="s">
         <v>206</v>
       </c>
-      <c r="D83" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E83" s="5">
-        <v>0</v>
-      </c>
-      <c r="F83" s="5">
-        <v>0</v>
-      </c>
-      <c r="G83" s="5">
-        <v>0</v>
-      </c>
-      <c r="H83" s="5">
-        <v>0</v>
-      </c>
-      <c r="I83" s="5">
+      <c r="D83" t="s">
+        <v>12</v>
+      </c>
+      <c r="E83" s="4">
+        <v>0</v>
+      </c>
+      <c r="F83" s="4">
+        <v>0</v>
+      </c>
+      <c r="G83" s="4">
+        <v>0</v>
+      </c>
+      <c r="H83" s="4">
+        <v>0</v>
+      </c>
+      <c r="I83" s="4">
         <v>0</v>
       </c>
       <c r="M83" t="str">
@@ -5416,31 +5416,31 @@
       </c>
     </row>
     <row r="84" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
+      <c r="A84" t="s">
         <v>161</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" t="s">
         <v>265</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" t="s">
         <v>266</v>
       </c>
-      <c r="D84" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E84" s="5">
-        <v>0</v>
-      </c>
-      <c r="F84" s="5">
-        <v>0</v>
-      </c>
-      <c r="G84" s="5">
-        <v>0</v>
-      </c>
-      <c r="H84" s="5">
-        <v>0</v>
-      </c>
-      <c r="I84" s="5">
+      <c r="D84" t="s">
+        <v>12</v>
+      </c>
+      <c r="E84" s="4">
+        <v>0</v>
+      </c>
+      <c r="F84" s="4">
+        <v>0</v>
+      </c>
+      <c r="G84" s="4">
+        <v>0</v>
+      </c>
+      <c r="H84" s="4">
+        <v>0</v>
+      </c>
+      <c r="I84" s="4">
         <v>0</v>
       </c>
       <c r="M84" t="str">
@@ -5460,31 +5460,31 @@
       </c>
     </row>
     <row r="85" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
+      <c r="A85" t="s">
         <v>275</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" t="s">
         <v>273</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" t="s">
         <v>274</v>
       </c>
-      <c r="D85" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E85" s="5">
-        <v>0</v>
-      </c>
-      <c r="F85" s="5">
-        <v>0</v>
-      </c>
-      <c r="G85" s="5">
-        <v>0</v>
-      </c>
-      <c r="H85" s="5">
-        <v>0</v>
-      </c>
-      <c r="I85" s="5">
+      <c r="D85" t="s">
+        <v>12</v>
+      </c>
+      <c r="E85" s="4">
+        <v>0</v>
+      </c>
+      <c r="F85" s="4">
+        <v>0</v>
+      </c>
+      <c r="G85" s="4">
+        <v>0</v>
+      </c>
+      <c r="H85" s="4">
+        <v>0</v>
+      </c>
+      <c r="I85" s="4">
         <v>0</v>
       </c>
       <c r="M85" t="str">
@@ -5504,31 +5504,31 @@
       </c>
     </row>
     <row r="86" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
+      <c r="A86" t="s">
         <v>272</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" t="s">
         <v>270</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" t="s">
         <v>271</v>
       </c>
-      <c r="D86" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E86" s="5">
-        <v>0</v>
-      </c>
-      <c r="F86" s="5">
-        <v>0</v>
-      </c>
-      <c r="G86" s="5">
-        <v>0</v>
-      </c>
-      <c r="H86" s="5">
-        <v>0</v>
-      </c>
-      <c r="I86" s="5">
+      <c r="D86" t="s">
+        <v>12</v>
+      </c>
+      <c r="E86" s="4">
+        <v>0</v>
+      </c>
+      <c r="F86" s="4">
+        <v>0</v>
+      </c>
+      <c r="G86" s="4">
+        <v>0</v>
+      </c>
+      <c r="H86" s="4">
+        <v>0</v>
+      </c>
+      <c r="I86" s="4">
         <v>0</v>
       </c>
       <c r="M86" t="str">
@@ -5548,31 +5548,31 @@
       </c>
     </row>
     <row r="87" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
+      <c r="A87" t="s">
         <v>278</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" t="s">
         <v>276</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" t="s">
         <v>277</v>
       </c>
-      <c r="D87" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E87" s="5">
-        <v>0</v>
-      </c>
-      <c r="F87" s="5">
-        <v>0</v>
-      </c>
-      <c r="G87" s="5">
-        <v>0</v>
-      </c>
-      <c r="H87" s="5">
-        <v>0</v>
-      </c>
-      <c r="I87" s="5">
+      <c r="D87" t="s">
+        <v>12</v>
+      </c>
+      <c r="E87" s="4">
+        <v>0</v>
+      </c>
+      <c r="F87" s="4">
+        <v>0</v>
+      </c>
+      <c r="G87" s="4">
+        <v>0</v>
+      </c>
+      <c r="H87" s="4">
+        <v>0</v>
+      </c>
+      <c r="I87" s="4">
         <v>0</v>
       </c>
       <c r="M87" t="str">
@@ -5592,31 +5592,31 @@
       </c>
     </row>
     <row r="88" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
+      <c r="A88" t="s">
         <v>170</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B88" t="s">
         <v>170</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C88" t="s">
         <v>171</v>
       </c>
-      <c r="D88" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E88" s="5">
-        <v>0</v>
-      </c>
-      <c r="F88" s="5">
-        <v>0</v>
-      </c>
-      <c r="G88" s="5">
-        <v>0</v>
-      </c>
-      <c r="H88" s="5">
-        <v>0</v>
-      </c>
-      <c r="I88" s="5">
+      <c r="D88" t="s">
+        <v>12</v>
+      </c>
+      <c r="E88" s="4">
+        <v>0</v>
+      </c>
+      <c r="F88" s="4">
+        <v>0</v>
+      </c>
+      <c r="G88" s="4">
+        <v>0</v>
+      </c>
+      <c r="H88" s="4">
+        <v>0</v>
+      </c>
+      <c r="I88" s="4">
         <v>0</v>
       </c>
       <c r="M88" t="str">
@@ -5636,31 +5636,31 @@
       </c>
     </row>
     <row r="89" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
+      <c r="A89" t="s">
         <v>201</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" t="s">
         <v>199</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C89" t="s">
         <v>200</v>
       </c>
-      <c r="D89" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E89" s="5">
-        <v>0</v>
-      </c>
-      <c r="F89" s="5">
-        <v>0</v>
-      </c>
-      <c r="G89" s="5">
-        <v>0</v>
-      </c>
-      <c r="H89" s="5">
-        <v>0</v>
-      </c>
-      <c r="I89" s="5">
+      <c r="D89" t="s">
+        <v>12</v>
+      </c>
+      <c r="E89" s="4">
+        <v>0</v>
+      </c>
+      <c r="F89" s="4">
+        <v>0</v>
+      </c>
+      <c r="G89" s="4">
+        <v>0</v>
+      </c>
+      <c r="H89" s="4">
+        <v>0</v>
+      </c>
+      <c r="I89" s="4">
         <v>0</v>
       </c>
       <c r="M89" t="str">
@@ -5680,31 +5680,31 @@
       </c>
     </row>
     <row r="90" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A90" s="1" t="s">
+      <c r="A90" t="s">
         <v>342</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" t="s">
         <v>340</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C90" t="s">
         <v>341</v>
       </c>
-      <c r="D90" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E90" s="5">
-        <v>0</v>
-      </c>
-      <c r="F90" s="5">
-        <v>0</v>
-      </c>
-      <c r="G90" s="5">
-        <v>0</v>
-      </c>
-      <c r="H90" s="5">
+      <c r="D90" t="s">
+        <v>12</v>
+      </c>
+      <c r="E90" s="4">
+        <v>0</v>
+      </c>
+      <c r="F90" s="4">
+        <v>0</v>
+      </c>
+      <c r="G90" s="4">
+        <v>0</v>
+      </c>
+      <c r="H90" s="4">
         <v>1</v>
       </c>
-      <c r="I90" s="5">
+      <c r="I90" s="4">
         <v>1</v>
       </c>
       <c r="M90" t="str">
@@ -5724,31 +5724,31 @@
       </c>
     </row>
     <row r="91" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A91" s="1" t="s">
+      <c r="A91" t="s">
         <v>281</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" t="s">
         <v>279</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" t="s">
         <v>280</v>
       </c>
-      <c r="D91" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E91" s="5">
-        <v>0</v>
-      </c>
-      <c r="F91" s="5">
-        <v>0</v>
-      </c>
-      <c r="G91" s="5">
-        <v>0</v>
-      </c>
-      <c r="H91" s="5">
-        <v>0</v>
-      </c>
-      <c r="I91" s="5">
+      <c r="D91" t="s">
+        <v>12</v>
+      </c>
+      <c r="E91" s="4">
+        <v>0</v>
+      </c>
+      <c r="F91" s="4">
+        <v>0</v>
+      </c>
+      <c r="G91" s="4">
+        <v>0</v>
+      </c>
+      <c r="H91" s="4">
+        <v>0</v>
+      </c>
+      <c r="I91" s="4">
         <v>0</v>
       </c>
       <c r="M91" t="str">
@@ -5768,31 +5768,31 @@
       </c>
     </row>
     <row r="92" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
+      <c r="A92" t="s">
         <v>284</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" t="s">
         <v>282</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" t="s">
         <v>283</v>
       </c>
-      <c r="D92" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E92" s="5">
-        <v>0</v>
-      </c>
-      <c r="F92" s="5">
-        <v>0</v>
-      </c>
-      <c r="G92" s="5">
-        <v>0</v>
-      </c>
-      <c r="H92" s="5">
-        <v>0</v>
-      </c>
-      <c r="I92" s="5">
+      <c r="D92" t="s">
+        <v>12</v>
+      </c>
+      <c r="E92" s="4">
+        <v>0</v>
+      </c>
+      <c r="F92" s="4">
+        <v>0</v>
+      </c>
+      <c r="G92" s="4">
+        <v>0</v>
+      </c>
+      <c r="H92" s="4">
+        <v>0</v>
+      </c>
+      <c r="I92" s="4">
         <v>0</v>
       </c>
       <c r="M92" t="str">
@@ -5812,31 +5812,31 @@
       </c>
     </row>
     <row r="93" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A93" s="1" t="s">
+      <c r="A93" t="s">
         <v>169</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B93" t="s">
         <v>167</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" t="s">
         <v>168</v>
       </c>
-      <c r="D93" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E93" s="5">
-        <v>0</v>
-      </c>
-      <c r="F93" s="5">
-        <v>0</v>
-      </c>
-      <c r="G93" s="5">
-        <v>0</v>
-      </c>
-      <c r="H93" s="5">
-        <v>0</v>
-      </c>
-      <c r="I93" s="5">
+      <c r="D93" t="s">
+        <v>12</v>
+      </c>
+      <c r="E93" s="4">
+        <v>0</v>
+      </c>
+      <c r="F93" s="4">
+        <v>0</v>
+      </c>
+      <c r="G93" s="4">
+        <v>0</v>
+      </c>
+      <c r="H93" s="4">
+        <v>0</v>
+      </c>
+      <c r="I93" s="4">
         <v>0</v>
       </c>
       <c r="M93" t="str">
@@ -5856,31 +5856,31 @@
       </c>
     </row>
     <row r="94" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
+      <c r="A94" t="s">
         <v>290</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B94" t="s">
         <v>288</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" t="s">
         <v>289</v>
       </c>
-      <c r="D94" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E94" s="5">
-        <v>0</v>
-      </c>
-      <c r="F94" s="5">
-        <v>0</v>
-      </c>
-      <c r="G94" s="5">
-        <v>0</v>
-      </c>
-      <c r="H94" s="5">
-        <v>0</v>
-      </c>
-      <c r="I94" s="5">
+      <c r="D94" t="s">
+        <v>12</v>
+      </c>
+      <c r="E94" s="4">
+        <v>0</v>
+      </c>
+      <c r="F94" s="4">
+        <v>0</v>
+      </c>
+      <c r="G94" s="4">
+        <v>0</v>
+      </c>
+      <c r="H94" s="4">
+        <v>0</v>
+      </c>
+      <c r="I94" s="4">
         <v>0</v>
       </c>
       <c r="M94" t="str">
@@ -5900,31 +5900,31 @@
       </c>
     </row>
     <row r="95" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
+      <c r="A95" t="s">
         <v>81</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B95" t="s">
         <v>79</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C95" t="s">
         <v>80</v>
       </c>
-      <c r="D95" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E95" s="5">
-        <v>0</v>
-      </c>
-      <c r="F95" s="5">
-        <v>0</v>
-      </c>
-      <c r="G95" s="5">
-        <v>0</v>
-      </c>
-      <c r="H95" s="5">
-        <v>0</v>
-      </c>
-      <c r="I95" s="5">
+      <c r="D95" t="s">
+        <v>12</v>
+      </c>
+      <c r="E95" s="4">
+        <v>0</v>
+      </c>
+      <c r="F95" s="4">
+        <v>0</v>
+      </c>
+      <c r="G95" s="4">
+        <v>0</v>
+      </c>
+      <c r="H95" s="4">
+        <v>0</v>
+      </c>
+      <c r="I95" s="4">
         <v>0</v>
       </c>
       <c r="M95" t="str">
@@ -5944,31 +5944,31 @@
       </c>
     </row>
     <row r="96" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
+      <c r="A96" t="s">
         <v>99</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B96" t="s">
         <v>97</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C96" t="s">
         <v>98</v>
       </c>
-      <c r="D96" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E96" s="5">
-        <v>0</v>
-      </c>
-      <c r="F96" s="5">
-        <v>0</v>
-      </c>
-      <c r="G96" s="5">
-        <v>0</v>
-      </c>
-      <c r="H96" s="5">
-        <v>0</v>
-      </c>
-      <c r="I96" s="5">
+      <c r="D96" t="s">
+        <v>12</v>
+      </c>
+      <c r="E96" s="4">
+        <v>0</v>
+      </c>
+      <c r="F96" s="4">
+        <v>0</v>
+      </c>
+      <c r="G96" s="4">
+        <v>0</v>
+      </c>
+      <c r="H96" s="4">
+        <v>0</v>
+      </c>
+      <c r="I96" s="4">
         <v>0</v>
       </c>
       <c r="M96" t="str">
@@ -5988,31 +5988,31 @@
       </c>
     </row>
     <row r="97" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
+      <c r="A97" t="s">
         <v>139</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B97" t="s">
         <v>137</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C97" t="s">
         <v>138</v>
       </c>
-      <c r="D97" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E97" s="5">
-        <v>0</v>
-      </c>
-      <c r="F97" s="5">
-        <v>0</v>
-      </c>
-      <c r="G97" s="5">
-        <v>0</v>
-      </c>
-      <c r="H97" s="5">
-        <v>0</v>
-      </c>
-      <c r="I97" s="5">
+      <c r="D97" t="s">
+        <v>12</v>
+      </c>
+      <c r="E97" s="4">
+        <v>0</v>
+      </c>
+      <c r="F97" s="4">
+        <v>0</v>
+      </c>
+      <c r="G97" s="4">
+        <v>0</v>
+      </c>
+      <c r="H97" s="4">
+        <v>0</v>
+      </c>
+      <c r="I97" s="4">
         <v>0</v>
       </c>
       <c r="M97" t="str">
@@ -6032,31 +6032,31 @@
       </c>
     </row>
     <row r="98" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
+      <c r="A98" t="s">
         <v>102</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" t="s">
         <v>100</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" t="s">
         <v>101</v>
       </c>
-      <c r="D98" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E98" s="5">
-        <v>0</v>
-      </c>
-      <c r="F98" s="5">
-        <v>0</v>
-      </c>
-      <c r="G98" s="5">
-        <v>0</v>
-      </c>
-      <c r="H98" s="5">
-        <v>0</v>
-      </c>
-      <c r="I98" s="5">
+      <c r="D98" t="s">
+        <v>12</v>
+      </c>
+      <c r="E98" s="4">
+        <v>0</v>
+      </c>
+      <c r="F98" s="4">
+        <v>0</v>
+      </c>
+      <c r="G98" s="4">
+        <v>0</v>
+      </c>
+      <c r="H98" s="4">
+        <v>0</v>
+      </c>
+      <c r="I98" s="4">
         <v>0</v>
       </c>
       <c r="M98" t="str">
@@ -6076,31 +6076,31 @@
       </c>
     </row>
     <row r="99" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
+      <c r="A99" t="s">
         <v>90</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B99" t="s">
         <v>88</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C99" t="s">
         <v>89</v>
       </c>
-      <c r="D99" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E99" s="5">
-        <v>0</v>
-      </c>
-      <c r="F99" s="5">
-        <v>0</v>
-      </c>
-      <c r="G99" s="5">
-        <v>0</v>
-      </c>
-      <c r="H99" s="5">
-        <v>0</v>
-      </c>
-      <c r="I99" s="5">
+      <c r="D99" t="s">
+        <v>12</v>
+      </c>
+      <c r="E99" s="4">
+        <v>0</v>
+      </c>
+      <c r="F99" s="4">
+        <v>0</v>
+      </c>
+      <c r="G99" s="4">
+        <v>0</v>
+      </c>
+      <c r="H99" s="4">
+        <v>0</v>
+      </c>
+      <c r="I99" s="4">
         <v>0</v>
       </c>
       <c r="M99" t="str">
@@ -6120,31 +6120,31 @@
       </c>
     </row>
     <row r="100" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
+      <c r="A100" t="s">
         <v>124</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B100" t="s">
         <v>122</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C100" t="s">
         <v>123</v>
       </c>
-      <c r="D100" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E100" s="5">
-        <v>0</v>
-      </c>
-      <c r="F100" s="5">
-        <v>0</v>
-      </c>
-      <c r="G100" s="5">
-        <v>0</v>
-      </c>
-      <c r="H100" s="5">
-        <v>0</v>
-      </c>
-      <c r="I100" s="5">
+      <c r="D100" t="s">
+        <v>12</v>
+      </c>
+      <c r="E100" s="4">
+        <v>0</v>
+      </c>
+      <c r="F100" s="4">
+        <v>0</v>
+      </c>
+      <c r="G100" s="4">
+        <v>0</v>
+      </c>
+      <c r="H100" s="4">
+        <v>0</v>
+      </c>
+      <c r="I100" s="4">
         <v>0</v>
       </c>
       <c r="M100" t="str">
@@ -6164,31 +6164,31 @@
       </c>
     </row>
     <row r="101" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A101" s="1" t="s">
+      <c r="A101" t="s">
         <v>38</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B101" t="s">
         <v>36</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C101" t="s">
         <v>37</v>
       </c>
-      <c r="D101" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E101" s="5">
-        <v>0</v>
-      </c>
-      <c r="F101" s="5">
-        <v>0</v>
-      </c>
-      <c r="G101" s="5">
-        <v>0</v>
-      </c>
-      <c r="H101" s="5">
+      <c r="D101" t="s">
+        <v>12</v>
+      </c>
+      <c r="E101" s="4">
+        <v>0</v>
+      </c>
+      <c r="F101" s="4">
+        <v>0</v>
+      </c>
+      <c r="G101" s="4">
+        <v>0</v>
+      </c>
+      <c r="H101" s="4">
         <v>1</v>
       </c>
-      <c r="I101" s="5">
+      <c r="I101" s="4">
         <v>0</v>
       </c>
       <c r="M101" t="str">
@@ -6208,31 +6208,31 @@
       </c>
     </row>
     <row r="102" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A102" s="1" t="s">
+      <c r="A102" t="s">
         <v>24</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B102" t="s">
         <v>22</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C102" t="s">
         <v>23</v>
       </c>
-      <c r="D102" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E102" s="5">
-        <v>0</v>
-      </c>
-      <c r="F102" s="5">
-        <v>0</v>
-      </c>
-      <c r="G102" s="5">
-        <v>0</v>
-      </c>
-      <c r="H102" s="5">
+      <c r="D102" t="s">
+        <v>12</v>
+      </c>
+      <c r="E102" s="4">
+        <v>0</v>
+      </c>
+      <c r="F102" s="4">
+        <v>0</v>
+      </c>
+      <c r="G102" s="4">
+        <v>0</v>
+      </c>
+      <c r="H102" s="4">
         <v>1</v>
       </c>
-      <c r="I102" s="5">
+      <c r="I102" s="4">
         <v>0</v>
       </c>
       <c r="M102" t="str">
@@ -6252,31 +6252,31 @@
       </c>
     </row>
     <row r="103" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A103" s="1" t="s">
+      <c r="A103" t="s">
         <v>21</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B103" t="s">
         <v>19</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C103" t="s">
         <v>20</v>
       </c>
-      <c r="D103" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E103" s="5">
-        <v>0</v>
-      </c>
-      <c r="F103" s="5">
-        <v>0</v>
-      </c>
-      <c r="G103" s="5">
-        <v>0</v>
-      </c>
-      <c r="H103" s="5">
+      <c r="D103" t="s">
+        <v>12</v>
+      </c>
+      <c r="E103" s="4">
+        <v>0</v>
+      </c>
+      <c r="F103" s="4">
+        <v>0</v>
+      </c>
+      <c r="G103" s="4">
+        <v>0</v>
+      </c>
+      <c r="H103" s="4">
         <v>1</v>
       </c>
-      <c r="I103" s="5">
+      <c r="I103" s="4">
         <v>0</v>
       </c>
       <c r="M103" t="str">
@@ -6296,31 +6296,31 @@
       </c>
     </row>
     <row r="104" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A104" s="1" t="s">
+      <c r="A104" t="s">
         <v>35</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B104" t="s">
         <v>33</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C104" t="s">
         <v>34</v>
       </c>
-      <c r="D104" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E104" s="5">
-        <v>0</v>
-      </c>
-      <c r="F104" s="5">
-        <v>0</v>
-      </c>
-      <c r="G104" s="5">
-        <v>0</v>
-      </c>
-      <c r="H104" s="5">
+      <c r="D104" t="s">
+        <v>12</v>
+      </c>
+      <c r="E104" s="4">
+        <v>0</v>
+      </c>
+      <c r="F104" s="4">
+        <v>0</v>
+      </c>
+      <c r="G104" s="4">
+        <v>0</v>
+      </c>
+      <c r="H104" s="4">
         <v>1</v>
       </c>
-      <c r="I104" s="5">
+      <c r="I104" s="4">
         <v>0</v>
       </c>
       <c r="M104" t="str">
@@ -6340,31 +6340,31 @@
       </c>
     </row>
     <row r="105" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A105" s="1" t="s">
+      <c r="A105" t="s">
         <v>35</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B105" t="s">
         <v>54</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C105" t="s">
         <v>55</v>
       </c>
-      <c r="D105" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E105" s="5">
-        <v>0</v>
-      </c>
-      <c r="F105" s="5">
-        <v>0</v>
-      </c>
-      <c r="G105" s="5">
-        <v>0</v>
-      </c>
-      <c r="H105" s="5">
+      <c r="D105" t="s">
+        <v>12</v>
+      </c>
+      <c r="E105" s="4">
+        <v>0</v>
+      </c>
+      <c r="F105" s="4">
+        <v>0</v>
+      </c>
+      <c r="G105" s="4">
+        <v>0</v>
+      </c>
+      <c r="H105" s="4">
         <v>1</v>
       </c>
-      <c r="I105" s="5">
+      <c r="I105" s="4">
         <v>0</v>
       </c>
       <c r="M105" t="str">
@@ -6384,31 +6384,31 @@
       </c>
     </row>
     <row r="106" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A106" s="1" t="s">
+      <c r="A106" t="s">
         <v>30</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B106" t="s">
         <v>28</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C106" t="s">
         <v>29</v>
       </c>
-      <c r="D106" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E106" s="5">
-        <v>0</v>
-      </c>
-      <c r="F106" s="5">
-        <v>0</v>
-      </c>
-      <c r="G106" s="5">
-        <v>0</v>
-      </c>
-      <c r="H106" s="5">
+      <c r="D106" t="s">
+        <v>12</v>
+      </c>
+      <c r="E106" s="4">
+        <v>0</v>
+      </c>
+      <c r="F106" s="4">
+        <v>0</v>
+      </c>
+      <c r="G106" s="4">
+        <v>0</v>
+      </c>
+      <c r="H106" s="4">
         <v>1</v>
       </c>
-      <c r="I106" s="5">
+      <c r="I106" s="4">
         <v>0</v>
       </c>
       <c r="M106" t="str">
@@ -6428,31 +6428,31 @@
       </c>
     </row>
     <row r="107" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A107" s="1" t="s">
+      <c r="A107" t="s">
         <v>27</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B107" t="s">
         <v>25</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C107" t="s">
         <v>26</v>
       </c>
-      <c r="D107" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E107" s="5">
-        <v>0</v>
-      </c>
-      <c r="F107" s="5">
-        <v>0</v>
-      </c>
-      <c r="G107" s="5">
-        <v>0</v>
-      </c>
-      <c r="H107" s="5">
+      <c r="D107" t="s">
+        <v>12</v>
+      </c>
+      <c r="E107" s="4">
+        <v>0</v>
+      </c>
+      <c r="F107" s="4">
+        <v>0</v>
+      </c>
+      <c r="G107" s="4">
+        <v>0</v>
+      </c>
+      <c r="H107" s="4">
         <v>1</v>
       </c>
-      <c r="I107" s="5">
+      <c r="I107" s="4">
         <v>0</v>
       </c>
       <c r="M107" t="str">
@@ -6472,31 +6472,31 @@
       </c>
     </row>
     <row r="108" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A108" s="1" t="s">
+      <c r="A108" t="s">
         <v>27</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B108" t="s">
         <v>43</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C108" t="s">
         <v>26</v>
       </c>
-      <c r="D108" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E108" s="5">
-        <v>0</v>
-      </c>
-      <c r="F108" s="5">
-        <v>0</v>
-      </c>
-      <c r="G108" s="5">
-        <v>0</v>
-      </c>
-      <c r="H108" s="5">
-        <v>0</v>
-      </c>
-      <c r="I108" s="5">
+      <c r="D108" t="s">
+        <v>12</v>
+      </c>
+      <c r="E108" s="4">
+        <v>0</v>
+      </c>
+      <c r="F108" s="4">
+        <v>0</v>
+      </c>
+      <c r="G108" s="4">
+        <v>0</v>
+      </c>
+      <c r="H108" s="4">
+        <v>0</v>
+      </c>
+      <c r="I108" s="4">
         <v>0</v>
       </c>
       <c r="M108" t="str">
@@ -6516,31 +6516,31 @@
       </c>
     </row>
     <row r="109" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A109" s="1" t="s">
+      <c r="A109" t="s">
         <v>145</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B109" t="s">
         <v>143</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C109" t="s">
         <v>144</v>
       </c>
-      <c r="D109" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E109" s="5">
-        <v>0</v>
-      </c>
-      <c r="F109" s="5">
-        <v>0</v>
-      </c>
-      <c r="G109" s="5">
-        <v>0</v>
-      </c>
-      <c r="H109" s="5">
-        <v>0</v>
-      </c>
-      <c r="I109" s="5">
+      <c r="D109" t="s">
+        <v>12</v>
+      </c>
+      <c r="E109" s="4">
+        <v>0</v>
+      </c>
+      <c r="F109" s="4">
+        <v>0</v>
+      </c>
+      <c r="G109" s="4">
+        <v>0</v>
+      </c>
+      <c r="H109" s="4">
+        <v>0</v>
+      </c>
+      <c r="I109" s="4">
         <v>0</v>
       </c>
       <c r="M109" t="str">
@@ -6560,31 +6560,31 @@
       </c>
     </row>
     <row r="110" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A110" s="1" t="s">
+      <c r="A110" t="s">
         <v>114</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B110" t="s">
         <v>112</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="C110" t="s">
         <v>113</v>
       </c>
-      <c r="D110" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E110" s="5">
-        <v>0</v>
-      </c>
-      <c r="F110" s="5">
-        <v>0</v>
-      </c>
-      <c r="G110" s="5">
-        <v>0</v>
-      </c>
-      <c r="H110" s="5">
-        <v>0</v>
-      </c>
-      <c r="I110" s="5">
+      <c r="D110" t="s">
+        <v>12</v>
+      </c>
+      <c r="E110" s="4">
+        <v>0</v>
+      </c>
+      <c r="F110" s="4">
+        <v>0</v>
+      </c>
+      <c r="G110" s="4">
+        <v>0</v>
+      </c>
+      <c r="H110" s="4">
+        <v>0</v>
+      </c>
+      <c r="I110" s="4">
         <v>0</v>
       </c>
       <c r="M110" t="str">
@@ -6604,31 +6604,31 @@
       </c>
     </row>
     <row r="111" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A111" s="1" t="s">
+      <c r="A111" t="s">
         <v>127</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B111" t="s">
         <v>125</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C111" t="s">
         <v>126</v>
       </c>
-      <c r="D111" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E111" s="5">
-        <v>0</v>
-      </c>
-      <c r="F111" s="5">
-        <v>0</v>
-      </c>
-      <c r="G111" s="5">
-        <v>0</v>
-      </c>
-      <c r="H111" s="5">
-        <v>0</v>
-      </c>
-      <c r="I111" s="5">
+      <c r="D111" t="s">
+        <v>12</v>
+      </c>
+      <c r="E111" s="4">
+        <v>0</v>
+      </c>
+      <c r="F111" s="4">
+        <v>0</v>
+      </c>
+      <c r="G111" s="4">
+        <v>0</v>
+      </c>
+      <c r="H111" s="4">
+        <v>0</v>
+      </c>
+      <c r="I111" s="4">
         <v>0</v>
       </c>
       <c r="M111" t="str">
@@ -6648,31 +6648,31 @@
       </c>
     </row>
     <row r="112" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A112" s="1" t="s">
+      <c r="A112" t="s">
         <v>148</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B112" t="s">
         <v>146</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="C112" t="s">
         <v>147</v>
       </c>
-      <c r="D112" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E112" s="5">
-        <v>0</v>
-      </c>
-      <c r="F112" s="5">
-        <v>0</v>
-      </c>
-      <c r="G112" s="5">
-        <v>0</v>
-      </c>
-      <c r="H112" s="5">
-        <v>0</v>
-      </c>
-      <c r="I112" s="5">
+      <c r="D112" t="s">
+        <v>12</v>
+      </c>
+      <c r="E112" s="4">
+        <v>0</v>
+      </c>
+      <c r="F112" s="4">
+        <v>0</v>
+      </c>
+      <c r="G112" s="4">
+        <v>0</v>
+      </c>
+      <c r="H112" s="4">
+        <v>0</v>
+      </c>
+      <c r="I112" s="4">
         <v>0</v>
       </c>
       <c r="M112" t="str">
@@ -6692,31 +6692,31 @@
       </c>
     </row>
     <row r="113" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A113" s="1" t="s">
+      <c r="A113" t="s">
         <v>111</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B113" t="s">
         <v>109</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="C113" t="s">
         <v>110</v>
       </c>
-      <c r="D113" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E113" s="5">
-        <v>0</v>
-      </c>
-      <c r="F113" s="5">
-        <v>0</v>
-      </c>
-      <c r="G113" s="5">
-        <v>0</v>
-      </c>
-      <c r="H113" s="5">
-        <v>0</v>
-      </c>
-      <c r="I113" s="5">
+      <c r="D113" t="s">
+        <v>12</v>
+      </c>
+      <c r="E113" s="4">
+        <v>0</v>
+      </c>
+      <c r="F113" s="4">
+        <v>0</v>
+      </c>
+      <c r="G113" s="4">
+        <v>0</v>
+      </c>
+      <c r="H113" s="4">
+        <v>0</v>
+      </c>
+      <c r="I113" s="4">
         <v>0</v>
       </c>
       <c r="M113" t="str">
@@ -6736,31 +6736,31 @@
       </c>
     </row>
     <row r="114" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A114" s="1" t="s">
+      <c r="A114" t="s">
         <v>72</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B114" t="s">
         <v>70</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="C114" t="s">
         <v>71</v>
       </c>
-      <c r="D114" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E114" s="5">
-        <v>0</v>
-      </c>
-      <c r="F114" s="5">
-        <v>0</v>
-      </c>
-      <c r="G114" s="5">
-        <v>0</v>
-      </c>
-      <c r="H114" s="5">
-        <v>0</v>
-      </c>
-      <c r="I114" s="5">
+      <c r="D114" t="s">
+        <v>12</v>
+      </c>
+      <c r="E114" s="4">
+        <v>0</v>
+      </c>
+      <c r="F114" s="4">
+        <v>0</v>
+      </c>
+      <c r="G114" s="4">
+        <v>0</v>
+      </c>
+      <c r="H114" s="4">
+        <v>0</v>
+      </c>
+      <c r="I114" s="4">
         <v>0</v>
       </c>
       <c r="M114" t="str">
@@ -6780,31 +6780,31 @@
       </c>
     </row>
     <row r="115" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A115" s="1" t="s">
+      <c r="A115" t="s">
         <v>69</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B115" t="s">
         <v>67</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="C115" t="s">
         <v>68</v>
       </c>
-      <c r="D115" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E115" s="5">
-        <v>0</v>
-      </c>
-      <c r="F115" s="5">
-        <v>0</v>
-      </c>
-      <c r="G115" s="5">
-        <v>0</v>
-      </c>
-      <c r="H115" s="5">
-        <v>0</v>
-      </c>
-      <c r="I115" s="5">
+      <c r="D115" t="s">
+        <v>12</v>
+      </c>
+      <c r="E115" s="4">
+        <v>0</v>
+      </c>
+      <c r="F115" s="4">
+        <v>0</v>
+      </c>
+      <c r="G115" s="4">
+        <v>0</v>
+      </c>
+      <c r="H115" s="4">
+        <v>0</v>
+      </c>
+      <c r="I115" s="4">
         <v>0</v>
       </c>
       <c r="M115" t="str">
@@ -6824,31 +6824,31 @@
       </c>
     </row>
     <row r="116" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A116" s="1" t="s">
+      <c r="A116" t="s">
         <v>108</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B116" t="s">
         <v>106</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="C116" t="s">
         <v>107</v>
       </c>
-      <c r="D116" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E116" s="5">
-        <v>0</v>
-      </c>
-      <c r="F116" s="5">
-        <v>0</v>
-      </c>
-      <c r="G116" s="5">
-        <v>0</v>
-      </c>
-      <c r="H116" s="5">
-        <v>0</v>
-      </c>
-      <c r="I116" s="5">
+      <c r="D116" t="s">
+        <v>12</v>
+      </c>
+      <c r="E116" s="4">
+        <v>0</v>
+      </c>
+      <c r="F116" s="4">
+        <v>0</v>
+      </c>
+      <c r="G116" s="4">
+        <v>0</v>
+      </c>
+      <c r="H116" s="4">
+        <v>0</v>
+      </c>
+      <c r="I116" s="4">
         <v>0</v>
       </c>
       <c r="M116" t="str">
@@ -6868,31 +6868,31 @@
       </c>
     </row>
     <row r="117" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A117" s="1" t="s">
+      <c r="A117" t="s">
         <v>136</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B117" t="s">
         <v>134</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="C117" t="s">
         <v>135</v>
       </c>
-      <c r="D117" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E117" s="5">
-        <v>0</v>
-      </c>
-      <c r="F117" s="5">
+      <c r="D117" t="s">
+        <v>12</v>
+      </c>
+      <c r="E117" s="4">
+        <v>0</v>
+      </c>
+      <c r="F117" s="4">
         <v>1</v>
       </c>
-      <c r="G117" s="5">
-        <v>0</v>
-      </c>
-      <c r="H117" s="5">
-        <v>0</v>
-      </c>
-      <c r="I117" s="5">
+      <c r="G117" s="4">
+        <v>0</v>
+      </c>
+      <c r="H117" s="4">
+        <v>0</v>
+      </c>
+      <c r="I117" s="4">
         <v>0</v>
       </c>
       <c r="M117" t="str">
@@ -6912,31 +6912,31 @@
       </c>
     </row>
     <row r="118" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A118" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B118" s="1" t="s">
+      <c r="A118" t="s">
+        <v>12</v>
+      </c>
+      <c r="B118" t="s">
         <v>31</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="C118" t="s">
         <v>32</v>
       </c>
-      <c r="D118" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E118" s="5">
-        <v>0</v>
-      </c>
-      <c r="F118" s="5">
-        <v>0</v>
-      </c>
-      <c r="G118" s="5">
-        <v>0</v>
-      </c>
-      <c r="H118" s="5">
+      <c r="D118" t="s">
+        <v>12</v>
+      </c>
+      <c r="E118" s="4">
+        <v>0</v>
+      </c>
+      <c r="F118" s="4">
+        <v>0</v>
+      </c>
+      <c r="G118" s="4">
+        <v>0</v>
+      </c>
+      <c r="H118" s="4">
         <v>1</v>
       </c>
-      <c r="I118" s="5">
+      <c r="I118" s="4">
         <v>0</v>
       </c>
       <c r="M118" t="str">
@@ -6956,31 +6956,31 @@
       </c>
     </row>
     <row r="119" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A119" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B119" s="1" t="s">
+      <c r="A119" t="s">
+        <v>12</v>
+      </c>
+      <c r="B119" t="s">
         <v>82</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="C119" t="s">
         <v>32</v>
       </c>
-      <c r="D119" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E119" s="5">
-        <v>0</v>
-      </c>
-      <c r="F119" s="5">
-        <v>0</v>
-      </c>
-      <c r="G119" s="5">
-        <v>0</v>
-      </c>
-      <c r="H119" s="5">
+      <c r="D119" t="s">
+        <v>12</v>
+      </c>
+      <c r="E119" s="4">
+        <v>0</v>
+      </c>
+      <c r="F119" s="4">
+        <v>0</v>
+      </c>
+      <c r="G119" s="4">
+        <v>0</v>
+      </c>
+      <c r="H119" s="4">
         <v>1</v>
       </c>
-      <c r="I119" s="5">
+      <c r="I119" s="4">
         <v>0</v>
       </c>
       <c r="M119" t="str">
@@ -7000,31 +7000,31 @@
       </c>
     </row>
     <row r="120" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A120" s="1" t="s">
+      <c r="A120" t="s">
         <v>130</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B120" t="s">
         <v>128</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="C120" t="s">
         <v>129</v>
       </c>
-      <c r="D120" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E120" s="5">
-        <v>0</v>
-      </c>
-      <c r="F120" s="5">
+      <c r="D120" t="s">
+        <v>12</v>
+      </c>
+      <c r="E120" s="4">
+        <v>0</v>
+      </c>
+      <c r="F120" s="4">
         <v>1</v>
       </c>
-      <c r="G120" s="5">
-        <v>0</v>
-      </c>
-      <c r="H120" s="5">
-        <v>0</v>
-      </c>
-      <c r="I120" s="5">
+      <c r="G120" s="4">
+        <v>0</v>
+      </c>
+      <c r="H120" s="4">
+        <v>0</v>
+      </c>
+      <c r="I120" s="4">
         <v>0</v>
       </c>
       <c r="M120" t="str">
@@ -7044,31 +7044,31 @@
       </c>
     </row>
     <row r="121" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A121" s="1" t="s">
+      <c r="A121" t="s">
         <v>121</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B121" t="s">
         <v>119</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="C121" t="s">
         <v>120</v>
       </c>
-      <c r="D121" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E121" s="5">
-        <v>0</v>
-      </c>
-      <c r="F121" s="5">
-        <v>0</v>
-      </c>
-      <c r="G121" s="5">
-        <v>0</v>
-      </c>
-      <c r="H121" s="5">
-        <v>0</v>
-      </c>
-      <c r="I121" s="5">
+      <c r="D121" t="s">
+        <v>12</v>
+      </c>
+      <c r="E121" s="4">
+        <v>0</v>
+      </c>
+      <c r="F121" s="4">
+        <v>0</v>
+      </c>
+      <c r="G121" s="4">
+        <v>0</v>
+      </c>
+      <c r="H121" s="4">
+        <v>0</v>
+      </c>
+      <c r="I121" s="4">
         <v>0</v>
       </c>
       <c r="M121" t="str">
@@ -7088,31 +7088,31 @@
       </c>
     </row>
     <row r="122" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A122" s="1" t="s">
+      <c r="A122" t="s">
         <v>105</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B122" t="s">
         <v>103</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="C122" t="s">
         <v>104</v>
       </c>
-      <c r="D122" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E122" s="5">
-        <v>0</v>
-      </c>
-      <c r="F122" s="5">
-        <v>0</v>
-      </c>
-      <c r="G122" s="5">
-        <v>0</v>
-      </c>
-      <c r="H122" s="5">
-        <v>0</v>
-      </c>
-      <c r="I122" s="5">
+      <c r="D122" t="s">
+        <v>12</v>
+      </c>
+      <c r="E122" s="4">
+        <v>0</v>
+      </c>
+      <c r="F122" s="4">
+        <v>0</v>
+      </c>
+      <c r="G122" s="4">
+        <v>0</v>
+      </c>
+      <c r="H122" s="4">
+        <v>0</v>
+      </c>
+      <c r="I122" s="4">
         <v>0</v>
       </c>
       <c r="M122" t="str">
@@ -7182,7 +7182,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="17" max="17" width="21.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -7215,7 +7215,7 @@
       <c r="J3" t="str">
         <v>Regex</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="Q3" s="1" t="s">
         <v>351</v>
       </c>
     </row>
@@ -7247,7 +7247,7 @@
       <c r="J4">
         <v>0</v>
       </c>
-      <c r="Q4" s="4" t="str" cm="1">
+      <c r="Q4" s="3" t="str" cm="1">
         <f t="array" ref="Q4:Q105">_xlfn.UNIQUE( Filters[Macro],  FALSE,FALSE)</f>
         <v/>
       </c>
@@ -7280,7 +7280,7 @@
       <c r="J5">
         <v>0</v>
       </c>
-      <c r="Q5" s="3" t="str">
+      <c r="Q5" s="2" t="str">
         <v>notOtherDrive</v>
       </c>
     </row>
@@ -7312,7 +7312,7 @@
       <c r="J6">
         <v>0</v>
       </c>
-      <c r="Q6" s="3" t="str">
+      <c r="Q6" s="2" t="str">
         <v>last3days</v>
       </c>
     </row>
@@ -7344,7 +7344,7 @@
       <c r="J7">
         <v>0</v>
       </c>
-      <c r="Q7" s="3" t="str">
+      <c r="Q7" s="2" t="str">
         <v>noTemp</v>
       </c>
     </row>
@@ -7376,7 +7376,7 @@
       <c r="J8">
         <v>0</v>
       </c>
-      <c r="Q8" s="3" t="str">
+      <c r="Q8" s="2" t="str">
         <v>not_ide</v>
       </c>
     </row>
@@ -7408,7 +7408,7 @@
       <c r="J9">
         <v>0</v>
       </c>
-      <c r="Q9" s="3" t="str">
+      <c r="Q9" s="2" t="str">
         <v>ts_compiled</v>
       </c>
     </row>
@@ -7440,7 +7440,7 @@
       <c r="J10">
         <v>0</v>
       </c>
-      <c r="Q10" s="3" t="str">
+      <c r="Q10" s="2" t="str">
         <v>dir_work</v>
       </c>
     </row>
@@ -7472,7 +7472,7 @@
       <c r="J11">
         <v>0</v>
       </c>
-      <c r="Q11" s="3" t="str">
+      <c r="Q11" s="2" t="str">
         <v>dir_pdf</v>
       </c>
     </row>
@@ -7504,7 +7504,7 @@
       <c r="J12">
         <v>0</v>
       </c>
-      <c r="Q12" s="3" t="str">
+      <c r="Q12" s="2" t="str">
         <v>notOldTemp</v>
       </c>
     </row>
@@ -7536,7 +7536,7 @@
       <c r="J13">
         <v>0</v>
       </c>
-      <c r="Q13" s="3" t="str">
+      <c r="Q13" s="2" t="str">
         <v>type_ps1</v>
       </c>
     </row>
@@ -7568,7 +7568,7 @@
       <c r="J14">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="str">
+      <c r="Q14" s="2" t="str">
         <v>strDate</v>
       </c>
     </row>
@@ -7600,7 +7600,7 @@
       <c r="J15">
         <v>0</v>
       </c>
-      <c r="Q15" s="3" t="str">
+      <c r="Q15" s="2" t="str">
         <v>work</v>
       </c>
     </row>
@@ -7632,7 +7632,7 @@
       <c r="J16">
         <v>0</v>
       </c>
-      <c r="Q16" s="3" t="str">
+      <c r="Q16" s="2" t="str">
         <v>ignoreobvious</v>
       </c>
     </row>
@@ -7664,7 +7664,7 @@
       <c r="J17">
         <v>0</v>
       </c>
-      <c r="Q17" s="3" t="str">
+      <c r="Q17" s="2" t="str">
         <v>skydrive</v>
       </c>
     </row>
@@ -7696,7 +7696,7 @@
       <c r="J18">
         <v>0</v>
       </c>
-      <c r="Q18" s="3" t="str">
+      <c r="Q18" s="2" t="str">
         <v>nin.com</v>
       </c>
     </row>
@@ -7728,7 +7728,7 @@
       <c r="J19">
         <v>0</v>
       </c>
-      <c r="Q19" s="3" t="str">
+      <c r="Q19" s="2" t="str">
         <v>web_cache</v>
       </c>
     </row>
@@ -7760,7 +7760,7 @@
       <c r="J20">
         <v>0</v>
       </c>
-      <c r="Q20" s="3" t="str">
+      <c r="Q20" s="2" t="str">
         <v>noWinApp</v>
       </c>
     </row>
@@ -7792,7 +7792,7 @@
       <c r="J21">
         <v>0</v>
       </c>
-      <c r="Q21" s="3" t="str">
+      <c r="Q21" s="2" t="str">
         <v>notOldClone</v>
       </c>
     </row>
@@ -7824,7 +7824,7 @@
       <c r="J22">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="str">
+      <c r="Q22" s="2" t="str">
         <v>no_git</v>
       </c>
     </row>
@@ -7856,7 +7856,7 @@
       <c r="J23">
         <v>0</v>
       </c>
-      <c r="Q23" s="3" t="str">
+      <c r="Q23" s="2" t="str">
         <v>basicIgnore</v>
       </c>
     </row>
@@ -7888,7 +7888,7 @@
       <c r="J24">
         <v>0</v>
       </c>
-      <c r="Q24" s="3" t="str">
+      <c r="Q24" s="2" t="str">
         <v>ignore_programdata</v>
       </c>
     </row>
@@ -7920,7 +7920,7 @@
       <c r="J25">
         <v>0</v>
       </c>
-      <c r="Q25" s="3" t="str">
+      <c r="Q25" s="2" t="str">
         <v>notGitDownloads</v>
       </c>
     </row>
@@ -7952,7 +7952,7 @@
       <c r="J26">
         <v>0</v>
       </c>
-      <c r="Q26" s="3" t="str">
+      <c r="Q26" s="2" t="str">
         <v>notBackup</v>
       </c>
     </row>
@@ -7984,7 +7984,7 @@
       <c r="J27">
         <v>0</v>
       </c>
-      <c r="Q27" s="3" t="str">
+      <c r="Q27" s="2" t="str">
         <v>def</v>
       </c>
     </row>
@@ -8016,7 +8016,7 @@
       <c r="J28">
         <v>0</v>
       </c>
-      <c r="Q28" s="3" t="str">
+      <c r="Q28" s="2" t="str">
         <v>not_games</v>
       </c>
     </row>
@@ -8048,7 +8048,7 @@
       <c r="J29">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="str">
+      <c r="Q29" s="2" t="str">
         <v>ninOut</v>
       </c>
     </row>
@@ -8080,7 +8080,7 @@
       <c r="J30">
         <v>0</v>
       </c>
-      <c r="Q30" s="3" t="str">
+      <c r="Q30" s="2" t="str">
         <v>noLog</v>
       </c>
     </row>
@@ -8112,7 +8112,7 @@
       <c r="J31">
         <v>0</v>
       </c>
-      <c r="Q31" s="3" t="str">
+      <c r="Q31" s="2" t="str">
         <v>app_firefox</v>
       </c>
     </row>
@@ -8144,7 +8144,7 @@
       <c r="J32">
         <v>0</v>
       </c>
-      <c r="Q32" s="3" t="str">
+      <c r="Q32" s="2" t="str">
         <v>2019</v>
       </c>
     </row>
@@ -8176,7 +8176,7 @@
       <c r="J33">
         <v>0</v>
       </c>
-      <c r="Q33" s="3" t="str">
+      <c r="Q33" s="2" t="str">
         <v>dir_ninmonkeys.com</v>
       </c>
     </row>
@@ -8208,7 +8208,7 @@
       <c r="J34">
         <v>0</v>
       </c>
-      <c r="Q34" s="3" t="str">
+      <c r="Q34" s="2" t="str">
         <v>vscode_recent</v>
       </c>
     </row>
@@ -8240,7 +8240,7 @@
       <c r="J35">
         <v>0</v>
       </c>
-      <c r="Q35" s="3" t="str">
+      <c r="Q35" s="2" t="str">
         <v>vscode_log</v>
       </c>
     </row>
@@ -8272,7 +8272,7 @@
       <c r="J36">
         <v>0</v>
       </c>
-      <c r="Q36" s="3" t="str">
+      <c r="Q36" s="2" t="str">
         <v>myFork</v>
       </c>
     </row>
@@ -8304,7 +8304,7 @@
       <c r="J37">
         <v>0</v>
       </c>
-      <c r="Q37" s="3" t="str">
+      <c r="Q37" s="2" t="str">
         <v>me</v>
       </c>
     </row>
@@ -8336,7 +8336,7 @@
       <c r="J38">
         <v>0</v>
       </c>
-      <c r="Q38" s="3" t="str">
+      <c r="Q38" s="2" t="str">
         <v>ignore_Locale</v>
       </c>
     </row>
@@ -8368,7 +8368,7 @@
       <c r="J39">
         <v>0</v>
       </c>
-      <c r="Q39" s="3" t="str">
+      <c r="Q39" s="2" t="str">
         <v>projects</v>
       </c>
     </row>
@@ -8400,7 +8400,7 @@
       <c r="J40">
         <v>0</v>
       </c>
-      <c r="Q40" s="3" t="str">
+      <c r="Q40" s="2" t="str">
         <v>hidden</v>
       </c>
     </row>
@@ -8432,7 +8432,7 @@
       <c r="J41">
         <v>0</v>
       </c>
-      <c r="Q41" s="3" t="str">
+      <c r="Q41" s="2" t="str">
         <v>last10days</v>
       </c>
     </row>
@@ -8464,7 +8464,7 @@
       <c r="J42">
         <v>0</v>
       </c>
-      <c r="Q42" s="3" t="str">
+      <c r="Q42" s="2" t="str">
         <v>video</v>
       </c>
     </row>
@@ -8496,7 +8496,7 @@
       <c r="J43">
         <v>0</v>
       </c>
-      <c r="Q43" s="3" t="str">
+      <c r="Q43" s="2" t="str">
         <v>zip</v>
       </c>
     </row>
@@ -8528,7 +8528,7 @@
       <c r="J44">
         <v>0</v>
       </c>
-      <c r="Q44" s="3" t="str">
+      <c r="Q44" s="2" t="str">
         <v>audio</v>
       </c>
     </row>
@@ -8560,7 +8560,7 @@
       <c r="J45">
         <v>0</v>
       </c>
-      <c r="Q45" s="3" t="str">
+      <c r="Q45" s="2" t="str">
         <v>windows_exe</v>
       </c>
     </row>
@@ -8592,7 +8592,7 @@
       <c r="J46">
         <v>0</v>
       </c>
-      <c r="Q46" s="3" t="str">
+      <c r="Q46" s="2" t="str">
         <v>exe:</v>
       </c>
     </row>
@@ -8624,7 +8624,7 @@
       <c r="J47">
         <v>0</v>
       </c>
-      <c r="Q47" s="3" t="str">
+      <c r="Q47" s="2" t="str">
         <v>office</v>
       </c>
     </row>
@@ -8656,7 +8656,7 @@
       <c r="J48">
         <v>0</v>
       </c>
-      <c r="Q48" s="3" t="str">
+      <c r="Q48" s="2" t="str">
         <v>t_onenote</v>
       </c>
     </row>
@@ -8688,7 +8688,7 @@
       <c r="J49">
         <v>0</v>
       </c>
-      <c r="Q49" s="3" t="str">
+      <c r="Q49" s="2" t="str">
         <v>main</v>
       </c>
     </row>
@@ -8720,7 +8720,7 @@
       <c r="J50">
         <v>0</v>
       </c>
-      <c r="Q50" s="3" t="str">
+      <c r="Q50" s="2" t="str">
         <v>powerbi</v>
       </c>
     </row>
@@ -8752,7 +8752,7 @@
       <c r="J51">
         <v>0</v>
       </c>
-      <c r="Q51" s="3" t="str">
+      <c r="Q51" s="2" t="str">
         <v>isPowerBI:</v>
       </c>
     </row>
@@ -8784,7 +8784,7 @@
       <c r="J52">
         <v>0</v>
       </c>
-      <c r="Q52" s="3" t="str">
+      <c r="Q52" s="2" t="str">
         <v>t_PowerBI</v>
       </c>
     </row>
@@ -8816,7 +8816,7 @@
       <c r="J53">
         <v>0</v>
       </c>
-      <c r="Q53" s="3" t="str">
+      <c r="Q53" s="2" t="str">
         <v>t_ps1</v>
       </c>
     </row>
@@ -8848,7 +8848,7 @@
       <c r="J54">
         <v>0</v>
       </c>
-      <c r="Q54" s="3" t="str">
+      <c r="Q54" s="2" t="str">
         <v>isPowershell</v>
       </c>
     </row>
@@ -8880,7 +8880,7 @@
       <c r="J55">
         <v>0</v>
       </c>
-      <c r="Q55" s="3" t="str">
+      <c r="Q55" s="2" t="str">
         <v>devImg</v>
       </c>
     </row>
@@ -8912,7 +8912,7 @@
       <c r="J56">
         <v>0</v>
       </c>
-      <c r="Q56" s="3" t="str">
+      <c r="Q56" s="2" t="str">
         <v>ext_gimp</v>
       </c>
     </row>
@@ -8944,7 +8944,7 @@
       <c r="J57">
         <v>0</v>
       </c>
-      <c r="Q57" s="3" t="str">
+      <c r="Q57" s="2" t="str">
         <v>code</v>
       </c>
     </row>
@@ -8976,7 +8976,7 @@
       <c r="J58">
         <v>0</v>
       </c>
-      <c r="Q58" s="3" t="str">
+      <c r="Q58" s="2" t="str">
         <v>bookmark</v>
       </c>
     </row>
@@ -9008,7 +9008,7 @@
       <c r="J59">
         <v>0</v>
       </c>
-      <c r="Q59" s="3" t="str">
+      <c r="Q59" s="2" t="str">
         <v>nonAsciiFile</v>
       </c>
     </row>
@@ -9040,7 +9040,7 @@
       <c r="J60">
         <v>0</v>
       </c>
-      <c r="Q60" s="3" t="str">
+      <c r="Q60" s="2" t="str">
         <v>meMore</v>
       </c>
     </row>
@@ -9072,7 +9072,7 @@
       <c r="J61">
         <v>0</v>
       </c>
-      <c r="Q61" s="3" t="str">
+      <c r="Q61" s="2" t="str">
         <v>dotnetTabular</v>
       </c>
     </row>
@@ -9104,7 +9104,7 @@
       <c r="J62">
         <v>0</v>
       </c>
-      <c r="Q62" s="3" t="str">
+      <c r="Q62" s="2" t="str">
         <v>no_venv</v>
       </c>
     </row>
@@ -9136,7 +9136,7 @@
       <c r="J63">
         <v>0</v>
       </c>
-      <c r="Q63" s="3" t="str">
+      <c r="Q63" s="2" t="str">
         <v>allMinimal</v>
       </c>
     </row>
@@ -9168,7 +9168,7 @@
       <c r="J64">
         <v>0</v>
       </c>
-      <c r="Q64" s="3" t="str">
+      <c r="Q64" s="2" t="str">
         <v>web2</v>
       </c>
     </row>
@@ -9200,7 +9200,7 @@
       <c r="J65">
         <v>0</v>
       </c>
-      <c r="Q65" s="3" t="str">
+      <c r="Q65" s="2" t="str">
         <v>notOld</v>
       </c>
     </row>
@@ -9232,7 +9232,7 @@
       <c r="J66">
         <v>0</v>
       </c>
-      <c r="Q66" s="3" t="str">
+      <c r="Q66" s="2" t="str">
         <v>2020</v>
       </c>
     </row>
@@ -9264,7 +9264,7 @@
       <c r="J67">
         <v>0</v>
       </c>
-      <c r="Q67" s="3" t="str">
+      <c r="Q67" s="2" t="str">
         <v>dirScreenshot</v>
       </c>
     </row>
@@ -9296,7 +9296,7 @@
       <c r="J68">
         <v>0</v>
       </c>
-      <c r="Q68" s="3" t="str">
+      <c r="Q68" s="2" t="str">
         <v>findDelims</v>
       </c>
     </row>
@@ -9328,7 +9328,7 @@
       <c r="J69">
         <v>0</v>
       </c>
-      <c r="Q69" s="3" t="str">
+      <c r="Q69" s="2" t="str">
         <v>blog</v>
       </c>
     </row>
@@ -9360,7 +9360,7 @@
       <c r="J70">
         <v>0</v>
       </c>
-      <c r="Q70" s="3" t="str">
+      <c r="Q70" s="2" t="str">
         <v>nonAsciiPath</v>
       </c>
     </row>
@@ -9392,7 +9392,7 @@
       <c r="J71">
         <v>0</v>
       </c>
-      <c r="Q71" s="3" t="str">
+      <c r="Q71" s="2" t="str">
         <v>findDelimsRegex</v>
       </c>
     </row>
@@ -9424,7 +9424,7 @@
       <c r="J72">
         <v>0</v>
       </c>
-      <c r="Q72" s="3" t="str">
+      <c r="Q72" s="2" t="str">
         <v>docs</v>
       </c>
     </row>
@@ -9456,7 +9456,7 @@
       <c r="J73">
         <v>0</v>
       </c>
-      <c r="Q73" s="3" t="str">
+      <c r="Q73" s="2" t="str">
         <v>mydocs</v>
       </c>
     </row>
@@ -9488,7 +9488,7 @@
       <c r="J74">
         <v>0</v>
       </c>
-      <c r="Q74" s="3" t="str">
+      <c r="Q74" s="2" t="str">
         <v>path_PowershellModules</v>
       </c>
     </row>
@@ -9520,7 +9520,7 @@
       <c r="J75">
         <v>0</v>
       </c>
-      <c r="Q75" s="3" t="str">
+      <c r="Q75" s="2" t="str">
         <v>2021</v>
       </c>
     </row>
@@ -9552,7 +9552,7 @@
       <c r="J76">
         <v>0</v>
       </c>
-      <c r="Q76" s="3" t="str">
+      <c r="Q76" s="2" t="str">
         <v>2021_all</v>
       </c>
     </row>
@@ -9584,7 +9584,7 @@
       <c r="J77">
         <v>0</v>
       </c>
-      <c r="Q77" s="3" t="str">
+      <c r="Q77" s="2" t="str">
         <v>games</v>
       </c>
     </row>
@@ -9616,7 +9616,7 @@
       <c r="J78">
         <v>0</v>
       </c>
-      <c r="Q78" s="3" t="str">
+      <c r="Q78" s="2" t="str">
         <v>screenshots</v>
       </c>
     </row>
@@ -9648,7 +9648,7 @@
       <c r="J79">
         <v>0</v>
       </c>
-      <c r="Q79" s="3" t="str">
+      <c r="Q79" s="2" t="str">
         <v>github_downloads</v>
       </c>
     </row>
@@ -9680,7 +9680,7 @@
       <c r="J80">
         <v>0</v>
       </c>
-      <c r="Q80" s="3" t="str">
+      <c r="Q80" s="2" t="str">
         <v>ninBin</v>
       </c>
     </row>
@@ -9712,7 +9712,7 @@
       <c r="J81">
         <v>0</v>
       </c>
-      <c r="Q81" s="3" t="str">
+      <c r="Q81" s="2" t="str">
         <v>steam</v>
       </c>
     </row>
@@ -9744,7 +9744,7 @@
       <c r="J82">
         <v>0</v>
       </c>
-      <c r="Q82" s="3" t="str">
+      <c r="Q82" s="2" t="str">
         <v>appdata</v>
       </c>
     </row>
@@ -9776,7 +9776,7 @@
       <c r="J83">
         <v>0</v>
       </c>
-      <c r="Q83" s="3" t="str">
+      <c r="Q83" s="2" t="str">
         <v>desktop</v>
       </c>
     </row>
@@ -9808,7 +9808,7 @@
       <c r="J84">
         <v>0</v>
       </c>
-      <c r="Q84" s="3" t="str">
+      <c r="Q84" s="2" t="str">
         <v>downloads</v>
       </c>
     </row>
@@ -9840,7 +9840,7 @@
       <c r="J85">
         <v>0</v>
       </c>
-      <c r="Q85" s="3" t="str">
+      <c r="Q85" s="2" t="str">
         <v>package</v>
       </c>
     </row>
@@ -9872,7 +9872,7 @@
       <c r="J86">
         <v>0</v>
       </c>
-      <c r="Q86" s="3" t="str">
+      <c r="Q86" s="2" t="str">
         <v>dir_programs</v>
       </c>
     </row>
@@ -9904,7 +9904,7 @@
       <c r="J87">
         <v>0</v>
       </c>
-      <c r="Q87" s="3" t="str">
+      <c r="Q87" s="2" t="str">
         <v>1_off</v>
       </c>
     </row>
@@ -9936,7 +9936,7 @@
       <c r="J88">
         <v>0</v>
       </c>
-      <c r="Q88" s="3" t="str">
+      <c r="Q88" s="2" t="str">
         <v>str_date</v>
       </c>
     </row>
@@ -9968,7 +9968,7 @@
       <c r="J89">
         <v>0</v>
       </c>
-      <c r="Q89" s="3" t="str">
+      <c r="Q89" s="2" t="str">
         <v>dir_ARG</v>
       </c>
     </row>
@@ -10000,7 +10000,7 @@
       <c r="J90">
         <v>0</v>
       </c>
-      <c r="Q90" s="3" t="str">
+      <c r="Q90" s="2" t="str">
         <v>compiled_rust</v>
       </c>
     </row>
@@ -10032,7 +10032,7 @@
       <c r="J91">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="str">
+      <c r="Q91" s="2" t="str">
         <v>pic</v>
       </c>
     </row>
@@ -10064,7 +10064,7 @@
       <c r="J92">
         <v>1</v>
       </c>
-      <c r="Q92" s="3" t="str">
+      <c r="Q92" s="2" t="str">
         <v>exe</v>
       </c>
     </row>
@@ -10096,7 +10096,7 @@
       <c r="J93">
         <v>0</v>
       </c>
-      <c r="Q93" s="3" t="str">
+      <c r="Q93" s="2" t="str">
         <v>doc</v>
       </c>
     </row>
@@ -10128,7 +10128,7 @@
       <c r="J94">
         <v>0</v>
       </c>
-      <c r="Q94" s="3" t="str">
+      <c r="Q94" s="2" t="str">
         <v>web</v>
       </c>
     </row>
@@ -10160,7 +10160,7 @@
       <c r="J95">
         <v>0</v>
       </c>
-      <c r="Q95" s="3" t="str">
+      <c r="Q95" s="2" t="str">
         <v>( ext_json )</v>
       </c>
     </row>
@@ -10192,7 +10192,7 @@
       <c r="J96">
         <v>0</v>
       </c>
-      <c r="Q96" s="3" t="str">
+      <c r="Q96" s="2" t="str">
         <v>compiled_js</v>
       </c>
     </row>
@@ -10224,7 +10224,7 @@
       <c r="J97">
         <v>0</v>
       </c>
-      <c r="Q97" s="3" t="str">
+      <c r="Q97" s="2" t="str">
         <v>web_compiled</v>
       </c>
     </row>
@@ -10256,7 +10256,7 @@
       <c r="J98">
         <v>0</v>
       </c>
-      <c r="Q98" s="3" t="str">
+      <c r="Q98" s="2" t="str">
         <v>ext_py</v>
       </c>
     </row>
@@ -10288,7 +10288,7 @@
       <c r="J99">
         <v>0</v>
       </c>
-      <c r="Q99" s="3" t="str">
+      <c r="Q99" s="2" t="str">
         <v>db</v>
       </c>
     </row>
@@ -10320,7 +10320,7 @@
       <c r="J100">
         <v>0</v>
       </c>
-      <c r="Q100" s="3" t="str">
+      <c r="Q100" s="2" t="str">
         <v>linux:</v>
       </c>
     </row>
@@ -10352,7 +10352,7 @@
       <c r="J101">
         <v>0</v>
       </c>
-      <c r="Q101" s="3" t="str">
+      <c r="Q101" s="2" t="str">
         <v>type_dash</v>
       </c>
     </row>
@@ -10384,7 +10384,7 @@
       <c r="J102">
         <v>0</v>
       </c>
-      <c r="Q102" s="3" t="str">
+      <c r="Q102" s="2" t="str">
         <v>no_ext</v>
       </c>
     </row>
@@ -10416,7 +10416,7 @@
       <c r="J103">
         <v>0</v>
       </c>
-      <c r="Q103" s="3" t="str">
+      <c r="Q103" s="2" t="str">
         <v>ext_vscode</v>
       </c>
     </row>
@@ -10448,7 +10448,7 @@
       <c r="J104">
         <v>0</v>
       </c>
-      <c r="Q104" s="3" t="str">
+      <c r="Q104" s="2" t="str">
         <v>poc</v>
       </c>
     </row>
@@ -10480,7 +10480,7 @@
       <c r="J105">
         <v>0</v>
       </c>
-      <c r="Q105" s="3" t="str">
+      <c r="Q105" s="2" t="str">
         <v>non_ascii</v>
       </c>
     </row>
